--- a/Transaksjoner.xlsx
+++ b/Transaksjoner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF50B287-ADAB-430D-9D1F-E3CB6E88C9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9818F3C6-9588-46BC-83B1-BE56E3EBD543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6000,17 +6000,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -6022,6 +6016,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6371,8 +6371,8 @@
   </sheetPr>
   <dimension ref="A1:V652"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="79" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
@@ -6383,7 +6383,7 @@
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="6.6328125" customWidth="1"/>
     <col min="8" max="8" width="3.36328125" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="9" max="9" width="25.90625" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="25.26953125" customWidth="1"/>
     <col min="12" max="12" width="14.1796875" customWidth="1"/>
@@ -6398,58 +6398,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="30" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="23" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="21" t="s">
         <v>16</v>
       </c>
     </row>
@@ -6458,18 +6458,18 @@
         <v>1911</v>
       </c>
       <c r="B2" s="11"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>1911</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2" s="11" t="s">
         <v>20</v>
       </c>
@@ -6479,10 +6479,10 @@
         <v>21</v>
       </c>
       <c r="M2" s="11"/>
-      <c r="N2" s="20">
+      <c r="N2" s="19">
         <v>120.79</v>
       </c>
-      <c r="O2" s="22"/>
+      <c r="O2" s="20"/>
       <c r="P2" s="11" t="s">
         <v>22</v>
       </c>
@@ -6495,7 +6495,7 @@
       <c r="S2" s="11" t="s">
         <v>1912</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="T2" s="18" t="s">
         <v>1451</v>
       </c>
       <c r="U2" s="11" t="s">
@@ -6510,18 +6510,18 @@
         <v>1911</v>
       </c>
       <c r="B3" s="11"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="24" t="s">
         <v>1911</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
         <v>21</v>
@@ -6531,8 +6531,8 @@
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19">
         <v>-178.5</v>
       </c>
       <c r="P3" s="11" t="s">
@@ -6547,7 +6547,7 @@
       <c r="S3" s="11" t="s">
         <v>1909</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="18" t="s">
         <v>1908</v>
       </c>
       <c r="U3" s="10" t="s">
@@ -6565,18 +6565,18 @@
       <c r="B4" s="11" t="s">
         <v>1901</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>1901</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="F4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
       <c r="I4" s="11" t="s">
         <v>20</v>
       </c>
@@ -6592,10 +6592,10 @@
       <c r="M4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="19">
         <v>196.5</v>
       </c>
-      <c r="O4" s="20"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="11" t="s">
         <v>22</v>
       </c>
@@ -6608,7 +6608,7 @@
       <c r="S4" s="11" t="s">
         <v>1906</v>
       </c>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="18" t="s">
         <v>1905</v>
       </c>
       <c r="U4" s="10" t="s">
@@ -6626,18 +6626,18 @@
       <c r="B5" s="11" t="s">
         <v>1901</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="24" t="s">
         <v>1901</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="F5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
       <c r="I5" s="11" t="s">
         <v>26</v>
       </c>
@@ -6653,8 +6653,8 @@
       <c r="M5" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19">
         <v>-3259.1</v>
       </c>
       <c r="P5" s="11" t="s">
@@ -6669,7 +6669,7 @@
       <c r="S5" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="18" t="s">
         <v>1903</v>
       </c>
       <c r="U5" s="10" t="s">
@@ -6687,18 +6687,18 @@
       <c r="B6" s="11" t="s">
         <v>1901</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="24" t="s">
         <v>1901</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="24"/>
       <c r="E6" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="F6" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
       <c r="I6" s="11" t="s">
         <v>20</v>
       </c>
@@ -6714,10 +6714,10 @@
       <c r="M6" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="19">
         <v>15719.71</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="11" t="s">
         <v>22</v>
       </c>
@@ -6730,7 +6730,7 @@
       <c r="S6" s="11" t="s">
         <v>1899</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="18" t="s">
         <v>1902</v>
       </c>
     </row>
@@ -6741,18 +6741,18 @@
       <c r="B7" s="11" t="s">
         <v>1901</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="24" t="s">
         <v>1901</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="F7" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
       <c r="I7" s="11" t="s">
         <v>20</v>
       </c>
@@ -6768,10 +6768,10 @@
       <c r="M7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="19">
         <v>1469.72</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="11" t="s">
         <v>22</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="S7" s="11" t="s">
         <v>1899</v>
       </c>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="18" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -6795,18 +6795,18 @@
       <c r="B8" s="11" t="s">
         <v>1891</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>1891</v>
       </c>
-      <c r="D8" s="21"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="F8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="11" t="s">
         <v>20</v>
       </c>
@@ -6822,10 +6822,10 @@
       <c r="M8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="19">
         <v>589.46</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="11" t="s">
         <v>22</v>
       </c>
@@ -6838,7 +6838,7 @@
       <c r="S8" s="11" t="s">
         <v>1889</v>
       </c>
-      <c r="T8" s="19" t="s">
+      <c r="T8" s="18" t="s">
         <v>1897</v>
       </c>
     </row>
@@ -6849,18 +6849,18 @@
       <c r="B9" s="11" t="s">
         <v>1891</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="24" t="s">
         <v>1891</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="F9" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="11" t="s">
         <v>115</v>
       </c>
@@ -6872,10 +6872,10 @@
       <c r="M9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="19">
         <v>60</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="11" t="s">
         <v>22</v>
       </c>
@@ -6888,7 +6888,7 @@
       <c r="S9" s="11" t="s">
         <v>1895</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="T9" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6899,18 +6899,18 @@
       <c r="B10" s="11" t="s">
         <v>1891</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="24" t="s">
         <v>1891</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="24"/>
       <c r="E10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="F10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="11" t="s">
         <v>20</v>
       </c>
@@ -6926,10 +6926,10 @@
       <c r="M10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="19">
         <v>2261.56</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="11" t="s">
         <v>22</v>
       </c>
@@ -6942,7 +6942,7 @@
       <c r="S10" s="11" t="s">
         <v>1893</v>
       </c>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="18" t="s">
         <v>1892</v>
       </c>
     </row>
@@ -6953,18 +6953,18 @@
       <c r="B11" s="11" t="s">
         <v>1891</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="24" t="s">
         <v>1891</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="F11" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
       <c r="I11" s="11" t="s">
         <v>20</v>
       </c>
@@ -6980,10 +6980,10 @@
       <c r="M11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="19">
         <v>442.11</v>
       </c>
-      <c r="O11" s="20"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="11" t="s">
         <v>22</v>
       </c>
@@ -6996,7 +6996,7 @@
       <c r="S11" s="11" t="s">
         <v>1889</v>
       </c>
-      <c r="T11" s="19" t="s">
+      <c r="T11" s="18" t="s">
         <v>1888</v>
       </c>
     </row>
@@ -7007,18 +7007,18 @@
       <c r="B12" s="11" t="s">
         <v>1881</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="24" t="s">
         <v>1881</v>
       </c>
-      <c r="D12" s="21"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="F12" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
       <c r="I12" s="11" t="s">
         <v>20</v>
       </c>
@@ -7034,10 +7034,10 @@
       <c r="M12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="19">
         <v>215.16</v>
       </c>
-      <c r="O12" s="20"/>
+      <c r="O12" s="19"/>
       <c r="P12" s="11" t="s">
         <v>22</v>
       </c>
@@ -7050,7 +7050,7 @@
       <c r="S12" s="11" t="s">
         <v>1886</v>
       </c>
-      <c r="T12" s="19" t="s">
+      <c r="T12" s="18" t="s">
         <v>1885</v>
       </c>
     </row>
@@ -7061,18 +7061,18 @@
       <c r="B13" s="11" t="s">
         <v>1881</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="24" t="s">
         <v>1881</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="F13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="11" t="s">
         <v>20</v>
       </c>
@@ -7088,10 +7088,10 @@
       <c r="M13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="19">
         <v>2081.8000000000002</v>
       </c>
-      <c r="O13" s="20"/>
+      <c r="O13" s="19"/>
       <c r="P13" s="11" t="s">
         <v>22</v>
       </c>
@@ -7104,7 +7104,7 @@
       <c r="S13" s="11" t="s">
         <v>1883</v>
       </c>
-      <c r="T13" s="19" t="s">
+      <c r="T13" s="18" t="s">
         <v>1882</v>
       </c>
     </row>
@@ -7115,18 +7115,18 @@
       <c r="B14" s="11" t="s">
         <v>1881</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="24" t="s">
         <v>1881</v>
       </c>
-      <c r="D14" s="21"/>
+      <c r="D14" s="24"/>
       <c r="E14" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="F14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="11" t="s">
         <v>20</v>
       </c>
@@ -7142,10 +7142,10 @@
       <c r="M14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>1259.54</v>
       </c>
-      <c r="O14" s="20"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="11" t="s">
         <v>22</v>
       </c>
@@ -7158,7 +7158,7 @@
       <c r="S14" s="11" t="s">
         <v>1879</v>
       </c>
-      <c r="T14" s="19" t="s">
+      <c r="T14" s="18" t="s">
         <v>1878</v>
       </c>
     </row>
@@ -7169,18 +7169,18 @@
       <c r="B15" s="11" t="s">
         <v>1874</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="24" t="s">
         <v>1874</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="F15" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="11" t="s">
         <v>20</v>
       </c>
@@ -7196,10 +7196,10 @@
       <c r="M15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="19">
         <v>993.26</v>
       </c>
-      <c r="O15" s="20"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="11" t="s">
         <v>22</v>
       </c>
@@ -7212,7 +7212,7 @@
       <c r="S15" s="11" t="s">
         <v>1876</v>
       </c>
-      <c r="T15" s="19" t="s">
+      <c r="T15" s="18" t="s">
         <v>1875</v>
       </c>
     </row>
@@ -7223,18 +7223,18 @@
       <c r="B16" s="11" t="s">
         <v>1874</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="24" t="s">
         <v>1874</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="24"/>
       <c r="E16" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="F16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="F16" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="11" t="s">
         <v>41</v>
       </c>
@@ -7250,10 +7250,10 @@
       <c r="M16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <v>417</v>
       </c>
-      <c r="O16" s="20"/>
+      <c r="O16" s="19"/>
       <c r="P16" s="11" t="s">
         <v>22</v>
       </c>
@@ -7266,7 +7266,7 @@
       <c r="S16" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="T16" s="19" t="s">
+      <c r="T16" s="18" t="s">
         <v>1872</v>
       </c>
     </row>
@@ -7277,18 +7277,18 @@
       <c r="B17" s="11" t="s">
         <v>1862</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="24" t="s">
         <v>1862</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="11" t="s">
         <v>1628</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="F17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="11" t="s">
         <v>26</v>
       </c>
@@ -7304,8 +7304,8 @@
       <c r="M17" s="11" t="s">
         <v>1630</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20">
+      <c r="N17" s="19"/>
+      <c r="O17" s="19">
         <v>-3246</v>
       </c>
       <c r="P17" s="11" t="s">
@@ -7320,7 +7320,7 @@
       <c r="S17" s="11" t="s">
         <v>1532</v>
       </c>
-      <c r="T17" s="19" t="s">
+      <c r="T17" s="18" t="s">
         <v>1870</v>
       </c>
     </row>
@@ -7331,18 +7331,18 @@
       <c r="B18" s="11" t="s">
         <v>1862</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="24" t="s">
         <v>1862</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="11" t="s">
         <v>1869</v>
       </c>
-      <c r="F18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="F18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="11" t="s">
         <v>26</v>
       </c>
@@ -7358,8 +7358,8 @@
       <c r="M18" s="11" t="s">
         <v>1867</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20">
+      <c r="N18" s="19"/>
+      <c r="O18" s="19">
         <v>-4322</v>
       </c>
       <c r="P18" s="11" t="s">
@@ -7374,7 +7374,7 @@
       <c r="S18" s="11" t="s">
         <v>1532</v>
       </c>
-      <c r="T18" s="19" t="s">
+      <c r="T18" s="18" t="s">
         <v>1865</v>
       </c>
     </row>
@@ -7385,18 +7385,18 @@
       <c r="B19" s="11" t="s">
         <v>1862</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="24" t="s">
         <v>1862</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="11" t="s">
         <v>1654</v>
       </c>
-      <c r="F19" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="F19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="11" t="s">
         <v>26</v>
       </c>
@@ -7412,10 +7412,10 @@
       <c r="M19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="19">
         <v>3205</v>
       </c>
-      <c r="O19" s="20"/>
+      <c r="O19" s="19"/>
       <c r="P19" s="11" t="s">
         <v>22</v>
       </c>
@@ -7428,7 +7428,7 @@
       <c r="S19" s="11" t="s">
         <v>970</v>
       </c>
-      <c r="T19" s="19" t="s">
+      <c r="T19" s="18" t="s">
         <v>1863</v>
       </c>
     </row>
@@ -7439,18 +7439,18 @@
       <c r="B20" s="11" t="s">
         <v>1862</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="24" t="s">
         <v>1862</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="F20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="11" t="s">
         <v>20</v>
       </c>
@@ -7466,10 +7466,10 @@
       <c r="M20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="19">
         <v>1545.38</v>
       </c>
-      <c r="O20" s="20"/>
+      <c r="O20" s="19"/>
       <c r="P20" s="11" t="s">
         <v>22</v>
       </c>
@@ -7482,7 +7482,7 @@
       <c r="S20" s="11" t="s">
         <v>1860</v>
       </c>
-      <c r="T20" s="19" t="s">
+      <c r="T20" s="18" t="s">
         <v>1859</v>
       </c>
     </row>
@@ -7493,18 +7493,18 @@
       <c r="B21" s="11" t="s">
         <v>1854</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="24" t="s">
         <v>1854</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
+      <c r="F21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="11" t="s">
         <v>41</v>
       </c>
@@ -7520,10 +7520,10 @@
       <c r="M21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="19">
         <v>945</v>
       </c>
-      <c r="O21" s="20"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="11" t="s">
         <v>22</v>
       </c>
@@ -7536,7 +7536,7 @@
       <c r="S21" s="11" t="s">
         <v>1328</v>
       </c>
-      <c r="T21" s="19" t="s">
+      <c r="T21" s="18" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -7547,18 +7547,18 @@
       <c r="B22" s="11" t="s">
         <v>1854</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="24" t="s">
         <v>1854</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="F22" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="11" t="s">
         <v>20</v>
       </c>
@@ -7574,10 +7574,10 @@
       <c r="M22" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="19">
         <v>1336.15</v>
       </c>
-      <c r="O22" s="20"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="11" t="s">
         <v>22</v>
       </c>
@@ -7590,7 +7590,7 @@
       <c r="S22" s="11" t="s">
         <v>1856</v>
       </c>
-      <c r="T22" s="19" t="s">
+      <c r="T22" s="18" t="s">
         <v>1855</v>
       </c>
     </row>
@@ -7601,18 +7601,18 @@
       <c r="B23" s="11" t="s">
         <v>1854</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="24" t="s">
         <v>1854</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="11" t="s">
         <v>1852</v>
       </c>
-      <c r="F23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
+      <c r="F23" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="11" t="s">
         <v>26</v>
       </c>
@@ -7628,10 +7628,10 @@
       <c r="M23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="19">
         <v>500</v>
       </c>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="11" t="s">
         <v>22</v>
       </c>
@@ -7644,7 +7644,7 @@
       <c r="S23" s="11" t="s">
         <v>1614</v>
       </c>
-      <c r="T23" s="19" t="s">
+      <c r="T23" s="18" t="s">
         <v>1850</v>
       </c>
     </row>
@@ -7655,18 +7655,18 @@
       <c r="B24" s="11" t="s">
         <v>1847</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="24" t="s">
         <v>1840</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="F24" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="F24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="11" t="s">
         <v>41</v>
       </c>
@@ -7682,10 +7682,10 @@
       <c r="M24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="19">
         <v>500</v>
       </c>
-      <c r="O24" s="20"/>
+      <c r="O24" s="19"/>
       <c r="P24" s="11" t="s">
         <v>22</v>
       </c>
@@ -7698,7 +7698,7 @@
       <c r="S24" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="T24" s="19" t="s">
+      <c r="T24" s="18" t="s">
         <v>485</v>
       </c>
     </row>
@@ -7709,18 +7709,18 @@
       <c r="B25" s="11" t="s">
         <v>1847</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="24" t="s">
         <v>1847</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="24"/>
       <c r="E25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="F25" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="11" t="s">
         <v>20</v>
       </c>
@@ -7736,10 +7736,10 @@
       <c r="M25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="19">
         <v>27.51</v>
       </c>
-      <c r="O25" s="20"/>
+      <c r="O25" s="19"/>
       <c r="P25" s="11" t="s">
         <v>22</v>
       </c>
@@ -7752,7 +7752,7 @@
       <c r="S25" s="11" t="s">
         <v>1845</v>
       </c>
-      <c r="T25" s="19" t="s">
+      <c r="T25" s="18" t="s">
         <v>1844</v>
       </c>
     </row>
@@ -7763,18 +7763,18 @@
       <c r="B26" s="11" t="s">
         <v>1840</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="24" t="s">
         <v>1840</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="11" t="s">
         <v>1842</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="F26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="11" t="s">
         <v>41</v>
       </c>
@@ -7790,10 +7790,10 @@
       <c r="M26" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N26" s="20">
+      <c r="N26" s="19">
         <v>500</v>
       </c>
-      <c r="O26" s="20"/>
+      <c r="O26" s="19"/>
       <c r="P26" s="11" t="s">
         <v>22</v>
       </c>
@@ -7806,7 +7806,7 @@
       <c r="S26" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="T26" s="19" t="s">
+      <c r="T26" s="18" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -7817,18 +7817,18 @@
       <c r="B27" s="11" t="s">
         <v>1840</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="24" t="s">
         <v>1840</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="F27" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="11" t="s">
         <v>115</v>
       </c>
@@ -7840,10 +7840,10 @@
       <c r="M27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="19">
         <v>196</v>
       </c>
-      <c r="O27" s="20"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="11" t="s">
         <v>22</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="S27" s="11" t="s">
         <v>1838</v>
       </c>
-      <c r="T27" s="19" t="s">
+      <c r="T27" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7867,18 +7867,18 @@
       <c r="B28" s="11" t="s">
         <v>1832</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="24" t="s">
         <v>1832</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="11" t="s">
         <v>1836</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="11" t="s">
         <v>20</v>
       </c>
@@ -7894,10 +7894,10 @@
       <c r="M28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="19">
         <v>2000</v>
       </c>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="11" t="s">
         <v>22</v>
       </c>
@@ -7910,7 +7910,7 @@
       <c r="S28" s="11" t="s">
         <v>1834</v>
       </c>
-      <c r="T28" s="19" t="s">
+      <c r="T28" s="18" t="s">
         <v>1833</v>
       </c>
     </row>
@@ -7921,18 +7921,18 @@
       <c r="B29" s="11" t="s">
         <v>1832</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="24" t="s">
         <v>1832</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="24"/>
       <c r="E29" s="11" t="s">
         <v>1830</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="F29" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
       <c r="I29" s="11" t="s">
         <v>26</v>
       </c>
@@ -7948,10 +7948,10 @@
       <c r="M29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N29" s="19">
         <v>500</v>
       </c>
-      <c r="O29" s="20"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="11" t="s">
         <v>22</v>
       </c>
@@ -7962,7 +7962,7 @@
       <c r="S29" s="11" t="s">
         <v>1829</v>
       </c>
-      <c r="T29" s="19" t="s">
+      <c r="T29" s="18" t="s">
         <v>1828</v>
       </c>
     </row>
@@ -7973,18 +7973,18 @@
       <c r="B30" s="11" t="s">
         <v>1820</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="24" t="s">
         <v>1820</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="24"/>
       <c r="E30" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
       <c r="I30" s="11" t="s">
         <v>166</v>
       </c>
@@ -7996,8 +7996,8 @@
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20">
+      <c r="N30" s="19"/>
+      <c r="O30" s="19">
         <v>-52.5</v>
       </c>
       <c r="P30" s="11" t="s">
@@ -8010,7 +8010,7 @@
       <c r="S30" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="T30" s="19" t="s">
+      <c r="T30" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -8021,18 +8021,18 @@
       <c r="B31" s="11" t="s">
         <v>1820</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="24" t="s">
         <v>1820</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="24"/>
       <c r="E31" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="21" t="s">
+      <c r="F31" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
       <c r="I31" s="11" t="s">
         <v>166</v>
       </c>
@@ -8044,8 +8044,8 @@
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20">
+      <c r="N31" s="19"/>
+      <c r="O31" s="19">
         <v>-14.4</v>
       </c>
       <c r="P31" s="11" t="s">
@@ -8058,7 +8058,7 @@
       <c r="S31" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="T31" s="19" t="s">
+      <c r="T31" s="18" t="s">
         <v>1827</v>
       </c>
     </row>
@@ -8069,18 +8069,18 @@
       <c r="B32" s="11" t="s">
         <v>1820</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="24" t="s">
         <v>1820</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="24"/>
       <c r="E32" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="21" t="s">
+      <c r="F32" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
       <c r="I32" s="11" t="s">
         <v>166</v>
       </c>
@@ -8092,8 +8092,8 @@
       </c>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20">
+      <c r="N32" s="19"/>
+      <c r="O32" s="19">
         <v>-0.9</v>
       </c>
       <c r="P32" s="11" t="s">
@@ -8106,7 +8106,7 @@
       <c r="S32" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="T32" s="19" t="s">
+      <c r="T32" s="18" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -8117,18 +8117,18 @@
       <c r="B33" s="11" t="s">
         <v>1820</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="24" t="s">
         <v>1820</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="24"/>
       <c r="E33" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F33" s="21" t="s">
+      <c r="F33" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
       <c r="I33" s="11" t="s">
         <v>166</v>
       </c>
@@ -8140,8 +8140,8 @@
       </c>
       <c r="L33" s="11"/>
       <c r="M33" s="11"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20">
+      <c r="N33" s="19"/>
+      <c r="O33" s="19">
         <v>-4.2</v>
       </c>
       <c r="P33" s="11" t="s">
@@ -8154,7 +8154,7 @@
       <c r="S33" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="T33" s="19" t="s">
+      <c r="T33" s="18" t="s">
         <v>1825</v>
       </c>
     </row>
@@ -8165,18 +8165,18 @@
       <c r="B34" s="11" t="s">
         <v>1820</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="24" t="s">
         <v>1824</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="24"/>
       <c r="E34" s="11" t="s">
         <v>1823</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="24" t="s">
         <v>1823</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
       <c r="I34" s="11" t="s">
         <v>1823</v>
       </c>
@@ -8188,10 +8188,10 @@
       <c r="M34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N34" s="20">
+      <c r="N34" s="19">
         <v>33462.730000000003</v>
       </c>
-      <c r="O34" s="20"/>
+      <c r="O34" s="19"/>
       <c r="P34" s="11" t="s">
         <v>22</v>
       </c>
@@ -8202,7 +8202,7 @@
       <c r="S34" s="11" t="s">
         <v>1822</v>
       </c>
-      <c r="T34" s="19" t="s">
+      <c r="T34" s="18" t="s">
         <v>1821</v>
       </c>
     </row>
@@ -8213,18 +8213,18 @@
       <c r="B35" s="11" t="s">
         <v>1820</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="24" t="s">
         <v>1820</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
       <c r="I35" s="11" t="s">
         <v>166</v>
       </c>
@@ -8236,8 +8236,8 @@
       </c>
       <c r="L35" s="11"/>
       <c r="M35" s="11"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20">
+      <c r="N35" s="19"/>
+      <c r="O35" s="19">
         <v>-21</v>
       </c>
       <c r="P35" s="11" t="s">
@@ -8250,7 +8250,7 @@
       <c r="S35" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="T35" s="19" t="s">
+      <c r="T35" s="18" t="s">
         <v>1819</v>
       </c>
     </row>
@@ -8261,18 +8261,18 @@
       <c r="B36" s="11" t="s">
         <v>1818</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="24" t="s">
         <v>1818</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F36" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="F36" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
       <c r="I36" s="11" t="s">
         <v>20</v>
       </c>
@@ -8288,10 +8288,10 @@
       <c r="M36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N36" s="20">
+      <c r="N36" s="19">
         <v>31.43</v>
       </c>
-      <c r="O36" s="20"/>
+      <c r="O36" s="19"/>
       <c r="P36" s="11" t="s">
         <v>22</v>
       </c>
@@ -8304,7 +8304,7 @@
       <c r="S36" s="11" t="s">
         <v>1816</v>
       </c>
-      <c r="T36" s="19" t="s">
+      <c r="T36" s="18" t="s">
         <v>1815</v>
       </c>
     </row>
@@ -8315,18 +8315,18 @@
       <c r="B37" s="11" t="s">
         <v>1814</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="24" t="s">
         <v>1814</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F37" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
+      <c r="F37" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
       <c r="I37" s="11" t="s">
         <v>406</v>
       </c>
@@ -8338,10 +8338,10 @@
       <c r="M37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N37" s="20">
+      <c r="N37" s="19">
         <v>44</v>
       </c>
-      <c r="O37" s="20"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="11" t="s">
         <v>22</v>
       </c>
@@ -8354,7 +8354,7 @@
       <c r="S37" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="T37" s="19"/>
+      <c r="T37" s="18"/>
     </row>
     <row r="38" spans="1:20">
       <c r="A38" s="11" t="s">
@@ -8363,18 +8363,18 @@
       <c r="B38" s="11" t="s">
         <v>1801</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="24" t="s">
         <v>1801</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="11" t="s">
         <v>1812</v>
       </c>
-      <c r="F38" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="F38" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="11" t="s">
         <v>26</v>
       </c>
@@ -8390,8 +8390,8 @@
       <c r="M38" s="11" t="s">
         <v>1810</v>
       </c>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20">
+      <c r="N38" s="19"/>
+      <c r="O38" s="19">
         <v>-85</v>
       </c>
       <c r="P38" s="11" t="s">
@@ -8406,7 +8406,7 @@
       <c r="S38" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="T38" s="19" t="s">
+      <c r="T38" s="18" t="s">
         <v>1808</v>
       </c>
     </row>
@@ -8417,18 +8417,18 @@
       <c r="B39" s="11" t="s">
         <v>1801</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="24" t="s">
         <v>1801</v>
       </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="F39" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="11" t="s">
         <v>20</v>
       </c>
@@ -8444,10 +8444,10 @@
       <c r="M39" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N39" s="20">
+      <c r="N39" s="19">
         <v>29.47</v>
       </c>
-      <c r="O39" s="20"/>
+      <c r="O39" s="19"/>
       <c r="P39" s="11" t="s">
         <v>22</v>
       </c>
@@ -8460,7 +8460,7 @@
       <c r="S39" s="11" t="s">
         <v>1806</v>
       </c>
-      <c r="T39" s="19" t="s">
+      <c r="T39" s="18" t="s">
         <v>1805</v>
       </c>
     </row>
@@ -8471,18 +8471,18 @@
       <c r="B40" s="11" t="s">
         <v>1801</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="24" t="s">
         <v>1801</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="11" t="s">
         <v>1804</v>
       </c>
-      <c r="F40" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="F40" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
       <c r="I40" s="11" t="s">
         <v>26</v>
       </c>
@@ -8498,10 +8498,10 @@
       <c r="M40" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N40" s="20">
+      <c r="N40" s="19">
         <v>500</v>
       </c>
-      <c r="O40" s="20"/>
+      <c r="O40" s="19"/>
       <c r="P40" s="11" t="s">
         <v>22</v>
       </c>
@@ -8514,7 +8514,7 @@
       <c r="S40" s="11" t="s">
         <v>1802</v>
       </c>
-      <c r="T40" s="19" t="s">
+      <c r="T40" s="18" t="s">
         <v>1242</v>
       </c>
     </row>
@@ -8525,18 +8525,18 @@
       <c r="B41" s="11" t="s">
         <v>1801</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="24" t="s">
         <v>1801</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="11" t="s">
         <v>1800</v>
       </c>
-      <c r="F41" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="F41" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
       <c r="I41" s="11" t="s">
         <v>26</v>
       </c>
@@ -8552,8 +8552,8 @@
       <c r="M41" s="11" t="s">
         <v>1798</v>
       </c>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20">
+      <c r="N41" s="19"/>
+      <c r="O41" s="19">
         <v>-300</v>
       </c>
       <c r="P41" s="11" t="s">
@@ -8568,7 +8568,7 @@
       <c r="S41" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="T41" s="19" t="s">
+      <c r="T41" s="18" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -8579,18 +8579,18 @@
       <c r="B42" s="11" t="s">
         <v>1449</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="24" t="s">
         <v>1449</v>
       </c>
-      <c r="D42" s="21"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="F42" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
       <c r="I42" s="11" t="s">
         <v>20</v>
       </c>
@@ -8606,10 +8606,10 @@
       <c r="M42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N42" s="20">
+      <c r="N42" s="19">
         <v>521.66999999999996</v>
       </c>
-      <c r="O42" s="20"/>
+      <c r="O42" s="19"/>
       <c r="P42" s="11" t="s">
         <v>22</v>
       </c>
@@ -8622,7 +8622,7 @@
       <c r="S42" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="T42" s="19" t="s">
+      <c r="T42" s="18" t="s">
         <v>1794</v>
       </c>
     </row>
@@ -8633,18 +8633,18 @@
       <c r="B43" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="24" t="s">
         <v>1452</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="F43" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
       <c r="I43" s="11" t="s">
         <v>20</v>
       </c>
@@ -8660,10 +8660,10 @@
       <c r="M43" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N43" s="20">
+      <c r="N43" s="19">
         <v>2758.69</v>
       </c>
-      <c r="O43" s="20"/>
+      <c r="O43" s="19"/>
       <c r="P43" s="11" t="s">
         <v>22</v>
       </c>
@@ -8676,7 +8676,7 @@
       <c r="S43" s="11" t="s">
         <v>1454</v>
       </c>
-      <c r="T43" s="19" t="s">
+      <c r="T43" s="18" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -8687,18 +8687,18 @@
       <c r="B44" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="24" t="s">
         <v>1452</v>
       </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="21" t="s">
+      <c r="F44" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
       <c r="I44" s="11" t="s">
         <v>166</v>
       </c>
@@ -8712,8 +8712,8 @@
         <v>244</v>
       </c>
       <c r="M44" s="11"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20">
+      <c r="N44" s="19"/>
+      <c r="O44" s="19">
         <v>-140</v>
       </c>
       <c r="P44" s="11" t="s">
@@ -8728,7 +8728,7 @@
       <c r="S44" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="T44" s="19" t="s">
+      <c r="T44" s="18" t="s">
         <v>247</v>
       </c>
     </row>
@@ -8739,18 +8739,18 @@
       <c r="B45" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="24" t="s">
         <v>1452</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
+      <c r="F45" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
       <c r="I45" s="11" t="s">
         <v>20</v>
       </c>
@@ -8766,10 +8766,10 @@
       <c r="M45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N45" s="20">
+      <c r="N45" s="19">
         <v>117.84</v>
       </c>
-      <c r="O45" s="20"/>
+      <c r="O45" s="19"/>
       <c r="P45" s="11" t="s">
         <v>22</v>
       </c>
@@ -8782,7 +8782,7 @@
       <c r="S45" s="11" t="s">
         <v>1459</v>
       </c>
-      <c r="T45" s="19" t="s">
+      <c r="T45" s="18" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -8793,18 +8793,18 @@
       <c r="B46" s="11" t="s">
         <v>1452</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="24" t="s">
         <v>1452</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F46" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
+      <c r="F46" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
       <c r="I46" s="11" t="s">
         <v>41</v>
       </c>
@@ -8820,10 +8820,10 @@
       <c r="M46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N46" s="20">
+      <c r="N46" s="19">
         <v>611</v>
       </c>
-      <c r="O46" s="20"/>
+      <c r="O46" s="19"/>
       <c r="P46" s="11" t="s">
         <v>22</v>
       </c>
@@ -8836,7 +8836,7 @@
       <c r="S46" s="11" t="s">
         <v>1234</v>
       </c>
-      <c r="T46" s="19" t="s">
+      <c r="T46" s="18" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -8847,18 +8847,18 @@
       <c r="B47" s="11" t="s">
         <v>1463</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="24" t="s">
         <v>1463</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
+      <c r="F47" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="11" t="s">
         <v>20</v>
       </c>
@@ -8874,10 +8874,10 @@
       <c r="M47" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N47" s="20">
+      <c r="N47" s="19">
         <v>1980.63</v>
       </c>
-      <c r="O47" s="20"/>
+      <c r="O47" s="19"/>
       <c r="P47" s="11" t="s">
         <v>22</v>
       </c>
@@ -8890,7 +8890,7 @@
       <c r="S47" s="11" t="s">
         <v>1465</v>
       </c>
-      <c r="T47" s="19" t="s">
+      <c r="T47" s="18" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -8901,18 +8901,18 @@
       <c r="B48" s="11" t="s">
         <v>1463</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="24" t="s">
         <v>1463</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
+      <c r="F48" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="11" t="s">
         <v>41</v>
       </c>
@@ -8928,10 +8928,10 @@
       <c r="M48" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N48" s="20">
+      <c r="N48" s="19">
         <v>1317</v>
       </c>
-      <c r="O48" s="20"/>
+      <c r="O48" s="19"/>
       <c r="P48" s="11" t="s">
         <v>22</v>
       </c>
@@ -8944,7 +8944,7 @@
       <c r="S48" s="11" t="s">
         <v>1328</v>
       </c>
-      <c r="T48" s="19" t="s">
+      <c r="T48" s="18" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -8955,18 +8955,18 @@
       <c r="B49" s="11" t="s">
         <v>1468</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="24" t="s">
         <v>1468</v>
       </c>
-      <c r="D49" s="21"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
+      <c r="F49" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
       <c r="I49" s="11" t="s">
         <v>20</v>
       </c>
@@ -8982,10 +8982,10 @@
       <c r="M49" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N49" s="20">
+      <c r="N49" s="19">
         <v>2505.1799999999998</v>
       </c>
-      <c r="O49" s="20"/>
+      <c r="O49" s="19"/>
       <c r="P49" s="11" t="s">
         <v>22</v>
       </c>
@@ -8998,7 +8998,7 @@
       <c r="S49" s="11" t="s">
         <v>1470</v>
       </c>
-      <c r="T49" s="19" t="s">
+      <c r="T49" s="18" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -9009,18 +9009,18 @@
       <c r="B50" s="11" t="s">
         <v>1468</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="24" t="s">
         <v>1468</v>
       </c>
-      <c r="D50" s="21"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F50" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
+      <c r="F50" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
       <c r="I50" s="11" t="s">
         <v>20</v>
       </c>
@@ -9036,10 +9036,10 @@
       <c r="M50" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N50" s="20">
+      <c r="N50" s="19">
         <v>319.31</v>
       </c>
-      <c r="O50" s="20"/>
+      <c r="O50" s="19"/>
       <c r="P50" s="11" t="s">
         <v>22</v>
       </c>
@@ -9052,7 +9052,7 @@
       <c r="S50" s="11" t="s">
         <v>1473</v>
       </c>
-      <c r="T50" s="19" t="s">
+      <c r="T50" s="18" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -9063,18 +9063,18 @@
       <c r="B51" s="11" t="s">
         <v>1468</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="24" t="s">
         <v>1468</v>
       </c>
-      <c r="D51" s="21"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
+      <c r="F51" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
       <c r="I51" s="11" t="s">
         <v>20</v>
       </c>
@@ -9090,10 +9090,10 @@
       <c r="M51" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N51" s="20">
+      <c r="N51" s="19">
         <v>294.75</v>
       </c>
-      <c r="O51" s="20"/>
+      <c r="O51" s="19"/>
       <c r="P51" s="11" t="s">
         <v>22</v>
       </c>
@@ -9106,7 +9106,7 @@
       <c r="S51" s="11" t="s">
         <v>1216</v>
       </c>
-      <c r="T51" s="19" t="s">
+      <c r="T51" s="18" t="s">
         <v>1476</v>
       </c>
     </row>
@@ -9117,18 +9117,18 @@
       <c r="B52" s="11" t="s">
         <v>1468</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="24" t="s">
         <v>1468</v>
       </c>
-      <c r="D52" s="21"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
+      <c r="F52" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
       <c r="I52" s="11" t="s">
         <v>20</v>
       </c>
@@ -9144,10 +9144,10 @@
       <c r="M52" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N52" s="20">
+      <c r="N52" s="19">
         <v>1041.44</v>
       </c>
-      <c r="O52" s="20"/>
+      <c r="O52" s="19"/>
       <c r="P52" s="11" t="s">
         <v>22</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="S52" s="11" t="s">
         <v>1473</v>
       </c>
-      <c r="T52" s="19" t="s">
+      <c r="T52" s="18" t="s">
         <v>1477</v>
       </c>
     </row>
@@ -9171,18 +9171,18 @@
       <c r="B53" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="24" t="s">
         <v>1478</v>
       </c>
-      <c r="D53" s="21"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F53" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="F53" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
       <c r="I53" s="11" t="s">
         <v>20</v>
       </c>
@@ -9198,10 +9198,10 @@
       <c r="M53" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N53" s="20">
+      <c r="N53" s="19">
         <v>371.36</v>
       </c>
-      <c r="O53" s="20"/>
+      <c r="O53" s="19"/>
       <c r="P53" s="11" t="s">
         <v>22</v>
       </c>
@@ -9214,7 +9214,7 @@
       <c r="S53" s="11" t="s">
         <v>1480</v>
       </c>
-      <c r="T53" s="19" t="s">
+      <c r="T53" s="18" t="s">
         <v>1481</v>
       </c>
     </row>
@@ -9225,18 +9225,18 @@
       <c r="B54" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="24" t="s">
         <v>1478</v>
       </c>
-      <c r="D54" s="21"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F54" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
+      <c r="F54" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
       <c r="I54" s="11" t="s">
         <v>20</v>
       </c>
@@ -9252,10 +9252,10 @@
       <c r="M54" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N54" s="20">
+      <c r="N54" s="19">
         <v>2510.14</v>
       </c>
-      <c r="O54" s="20"/>
+      <c r="O54" s="19"/>
       <c r="P54" s="11" t="s">
         <v>22</v>
       </c>
@@ -9268,7 +9268,7 @@
       <c r="S54" s="11" t="s">
         <v>1483</v>
       </c>
-      <c r="T54" s="19" t="s">
+      <c r="T54" s="18" t="s">
         <v>1484</v>
       </c>
     </row>
@@ -9279,18 +9279,18 @@
       <c r="B55" s="11" t="s">
         <v>1478</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="24" t="s">
         <v>1478</v>
       </c>
-      <c r="D55" s="21"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F55" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
+      <c r="F55" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
       <c r="I55" s="11" t="s">
         <v>20</v>
       </c>
@@ -9306,10 +9306,10 @@
       <c r="M55" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N55" s="20">
+      <c r="N55" s="19">
         <v>2331.35</v>
       </c>
-      <c r="O55" s="20"/>
+      <c r="O55" s="19"/>
       <c r="P55" s="11" t="s">
         <v>22</v>
       </c>
@@ -9322,7 +9322,7 @@
       <c r="S55" s="11" t="s">
         <v>1483</v>
       </c>
-      <c r="T55" s="19" t="s">
+      <c r="T55" s="18" t="s">
         <v>1485</v>
       </c>
     </row>
@@ -9333,18 +9333,18 @@
       <c r="B56" s="11" t="s">
         <v>1486</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="24" t="s">
         <v>1486</v>
       </c>
-      <c r="D56" s="21"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
+      <c r="F56" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
       <c r="I56" s="11" t="s">
         <v>20</v>
       </c>
@@ -9360,10 +9360,10 @@
       <c r="M56" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N56" s="20">
+      <c r="N56" s="19">
         <v>1544.41</v>
       </c>
-      <c r="O56" s="20"/>
+      <c r="O56" s="19"/>
       <c r="P56" s="11" t="s">
         <v>22</v>
       </c>
@@ -9376,7 +9376,7 @@
       <c r="S56" s="11" t="s">
         <v>1488</v>
       </c>
-      <c r="T56" s="19" t="s">
+      <c r="T56" s="18" t="s">
         <v>1489</v>
       </c>
     </row>
@@ -9387,18 +9387,18 @@
       <c r="B57" s="11" t="s">
         <v>1486</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="24" t="s">
         <v>1486</v>
       </c>
-      <c r="D57" s="21"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
+      <c r="F57" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
       <c r="I57" s="11" t="s">
         <v>95</v>
       </c>
@@ -9414,8 +9414,8 @@
       <c r="M57" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20">
+      <c r="N57" s="19"/>
+      <c r="O57" s="19">
         <v>-150.78</v>
       </c>
       <c r="P57" s="11" t="s">
@@ -9428,7 +9428,7 @@
       <c r="S57" s="11" t="s">
         <v>1490</v>
       </c>
-      <c r="T57" s="19" t="s">
+      <c r="T57" s="18" t="s">
         <v>99</v>
       </c>
     </row>
@@ -9439,18 +9439,18 @@
       <c r="B58" s="11" t="s">
         <v>1486</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="24" t="s">
         <v>1486</v>
       </c>
-      <c r="D58" s="21"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F58" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
+      <c r="F58" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="11" t="s">
         <v>406</v>
       </c>
@@ -9462,10 +9462,10 @@
       <c r="M58" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N58" s="20">
+      <c r="N58" s="19">
         <v>355</v>
       </c>
-      <c r="O58" s="20"/>
+      <c r="O58" s="19"/>
       <c r="P58" s="11" t="s">
         <v>22</v>
       </c>
@@ -9478,7 +9478,7 @@
       <c r="S58" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="T58" s="19"/>
+      <c r="T58" s="18"/>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="11" t="s">
@@ -9487,18 +9487,18 @@
       <c r="B59" s="11" t="s">
         <v>1492</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="24" t="s">
         <v>1492</v>
       </c>
-      <c r="D59" s="21"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+      <c r="F59" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
       <c r="I59" s="11" t="s">
         <v>20</v>
       </c>
@@ -9514,10 +9514,10 @@
       <c r="M59" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N59" s="20">
+      <c r="N59" s="19">
         <v>2713.45</v>
       </c>
-      <c r="O59" s="20"/>
+      <c r="O59" s="19"/>
       <c r="P59" s="11" t="s">
         <v>22</v>
       </c>
@@ -9530,7 +9530,7 @@
       <c r="S59" s="11" t="s">
         <v>1494</v>
       </c>
-      <c r="T59" s="19" t="s">
+      <c r="T59" s="18" t="s">
         <v>1495</v>
       </c>
     </row>
@@ -9541,18 +9541,18 @@
       <c r="B60" s="11" t="s">
         <v>1492</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="24" t="s">
         <v>1492</v>
       </c>
-      <c r="D60" s="21"/>
+      <c r="D60" s="24"/>
       <c r="E60" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F60" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G60" s="21"/>
-      <c r="H60" s="21"/>
+      <c r="F60" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
       <c r="I60" s="11" t="s">
         <v>20</v>
       </c>
@@ -9568,10 +9568,10 @@
       <c r="M60" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N60" s="20">
+      <c r="N60" s="19">
         <v>81.510000000000005</v>
       </c>
-      <c r="O60" s="20"/>
+      <c r="O60" s="19"/>
       <c r="P60" s="11" t="s">
         <v>22</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="S60" s="11" t="s">
         <v>1497</v>
       </c>
-      <c r="T60" s="19" t="s">
+      <c r="T60" s="18" t="s">
         <v>1498</v>
       </c>
     </row>
@@ -9595,18 +9595,18 @@
       <c r="B61" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="24" t="s">
         <v>1499</v>
       </c>
-      <c r="D61" s="21"/>
+      <c r="D61" s="24"/>
       <c r="E61" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
+      <c r="F61" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
       <c r="I61" s="11" t="s">
         <v>20</v>
       </c>
@@ -9622,10 +9622,10 @@
       <c r="M61" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N61" s="20">
+      <c r="N61" s="19">
         <v>338.93</v>
       </c>
-      <c r="O61" s="20"/>
+      <c r="O61" s="19"/>
       <c r="P61" s="11" t="s">
         <v>22</v>
       </c>
@@ -9638,7 +9638,7 @@
       <c r="S61" s="11" t="s">
         <v>1501</v>
       </c>
-      <c r="T61" s="19" t="s">
+      <c r="T61" s="18" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -9649,18 +9649,18 @@
       <c r="B62" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="24" t="s">
         <v>1499</v>
       </c>
-      <c r="D62" s="21"/>
+      <c r="D62" s="24"/>
       <c r="E62" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F62" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
+      <c r="F62" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
       <c r="I62" s="11" t="s">
         <v>20</v>
       </c>
@@ -9676,10 +9676,10 @@
       <c r="M62" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N62" s="20">
+      <c r="N62" s="19">
         <v>2565.13</v>
       </c>
-      <c r="O62" s="20"/>
+      <c r="O62" s="19"/>
       <c r="P62" s="11" t="s">
         <v>22</v>
       </c>
@@ -9692,7 +9692,7 @@
       <c r="S62" s="11" t="s">
         <v>1504</v>
       </c>
-      <c r="T62" s="19" t="s">
+      <c r="T62" s="18" t="s">
         <v>1505</v>
       </c>
     </row>
@@ -9703,18 +9703,18 @@
       <c r="B63" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="24" t="s">
         <v>1499</v>
       </c>
-      <c r="D63" s="21"/>
+      <c r="D63" s="24"/>
       <c r="E63" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F63" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
+      <c r="F63" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
       <c r="I63" s="11" t="s">
         <v>406</v>
       </c>
@@ -9726,10 +9726,10 @@
       <c r="M63" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N63" s="20">
+      <c r="N63" s="19">
         <v>1050</v>
       </c>
-      <c r="O63" s="20"/>
+      <c r="O63" s="19"/>
       <c r="P63" s="11" t="s">
         <v>22</v>
       </c>
@@ -9742,7 +9742,7 @@
       <c r="S63" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="T63" s="19"/>
+      <c r="T63" s="18"/>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="11" t="s">
@@ -9751,18 +9751,18 @@
       <c r="B64" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="24" t="s">
         <v>1499</v>
       </c>
-      <c r="D64" s="21"/>
+      <c r="D64" s="24"/>
       <c r="E64" s="11" t="s">
         <v>1507</v>
       </c>
-      <c r="F64" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
+      <c r="F64" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
       <c r="I64" s="11" t="s">
         <v>26</v>
       </c>
@@ -9778,10 +9778,10 @@
       <c r="M64" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N64" s="20">
+      <c r="N64" s="19">
         <v>500</v>
       </c>
-      <c r="O64" s="20"/>
+      <c r="O64" s="19"/>
       <c r="P64" s="11" t="s">
         <v>22</v>
       </c>
@@ -9794,7 +9794,7 @@
       <c r="S64" s="11" t="s">
         <v>1510</v>
       </c>
-      <c r="T64" s="19" t="s">
+      <c r="T64" s="18" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -9805,18 +9805,18 @@
       <c r="B65" s="11" t="s">
         <v>1499</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="24" t="s">
         <v>1499</v>
       </c>
-      <c r="D65" s="21"/>
+      <c r="D65" s="24"/>
       <c r="E65" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F65" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
+      <c r="F65" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="11" t="s">
         <v>406</v>
       </c>
@@ -9828,10 +9828,10 @@
       <c r="M65" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="19">
         <v>500</v>
       </c>
-      <c r="O65" s="20"/>
+      <c r="O65" s="19"/>
       <c r="P65" s="11" t="s">
         <v>22</v>
       </c>
@@ -9844,7 +9844,7 @@
       <c r="S65" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="T65" s="19"/>
+      <c r="T65" s="18"/>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="11" t="s">
@@ -9853,18 +9853,18 @@
       <c r="B66" s="11" t="s">
         <v>1513</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="24" t="s">
         <v>1513</v>
       </c>
-      <c r="D66" s="21"/>
+      <c r="D66" s="24"/>
       <c r="E66" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F66" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
+      <c r="F66" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
       <c r="I66" s="11" t="s">
         <v>20</v>
       </c>
@@ -9880,10 +9880,10 @@
       <c r="M66" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N66" s="20">
+      <c r="N66" s="19">
         <v>147.37</v>
       </c>
-      <c r="O66" s="20"/>
+      <c r="O66" s="19"/>
       <c r="P66" s="11" t="s">
         <v>22</v>
       </c>
@@ -9896,7 +9896,7 @@
       <c r="S66" s="11" t="s">
         <v>1515</v>
       </c>
-      <c r="T66" s="19" t="s">
+      <c r="T66" s="18" t="s">
         <v>1516</v>
       </c>
     </row>
@@ -9907,18 +9907,18 @@
       <c r="B67" s="11" t="s">
         <v>1513</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="24" t="s">
         <v>1513</v>
       </c>
-      <c r="D67" s="21"/>
+      <c r="D67" s="24"/>
       <c r="E67" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F67" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
+      <c r="F67" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
       <c r="I67" s="11" t="s">
         <v>406</v>
       </c>
@@ -9930,10 +9930,10 @@
       <c r="M67" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N67" s="20">
+      <c r="N67" s="19">
         <v>500</v>
       </c>
-      <c r="O67" s="20"/>
+      <c r="O67" s="19"/>
       <c r="P67" s="11" t="s">
         <v>22</v>
       </c>
@@ -9946,7 +9946,7 @@
       <c r="S67" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="T67" s="19"/>
+      <c r="T67" s="18"/>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="11" t="s">
@@ -9955,18 +9955,18 @@
       <c r="B68" s="11" t="s">
         <v>1513</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="24" t="s">
         <v>1513</v>
       </c>
-      <c r="D68" s="21"/>
+      <c r="D68" s="24"/>
       <c r="E68" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F68" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" s="21"/>
-      <c r="H68" s="21"/>
+      <c r="F68" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
       <c r="I68" s="11" t="s">
         <v>20</v>
       </c>
@@ -9982,10 +9982,10 @@
       <c r="M68" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N68" s="20">
+      <c r="N68" s="19">
         <v>1667.26</v>
       </c>
-      <c r="O68" s="20"/>
+      <c r="O68" s="19"/>
       <c r="P68" s="11" t="s">
         <v>22</v>
       </c>
@@ -9998,7 +9998,7 @@
       <c r="S68" s="11" t="s">
         <v>1519</v>
       </c>
-      <c r="T68" s="19" t="s">
+      <c r="T68" s="18" t="s">
         <v>1520</v>
       </c>
     </row>
@@ -10009,18 +10009,18 @@
       <c r="B69" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D69" s="21"/>
+      <c r="D69" s="24"/>
       <c r="E69" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F69" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G69" s="21"/>
-      <c r="H69" s="21"/>
+      <c r="F69" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
       <c r="I69" s="11" t="s">
         <v>20</v>
       </c>
@@ -10036,10 +10036,10 @@
       <c r="M69" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N69" s="20">
+      <c r="N69" s="19">
         <v>532.5</v>
       </c>
-      <c r="O69" s="20"/>
+      <c r="O69" s="19"/>
       <c r="P69" s="11" t="s">
         <v>22</v>
       </c>
@@ -10052,7 +10052,7 @@
       <c r="S69" s="11" t="s">
         <v>1523</v>
       </c>
-      <c r="T69" s="19" t="s">
+      <c r="T69" s="18" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -10063,18 +10063,18 @@
       <c r="B70" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D70" s="21"/>
+      <c r="D70" s="24"/>
       <c r="E70" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F70" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
+      <c r="F70" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
       <c r="I70" s="11" t="s">
         <v>20</v>
       </c>
@@ -10090,10 +10090,10 @@
       <c r="M70" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N70" s="20">
+      <c r="N70" s="19">
         <v>1235.96</v>
       </c>
-      <c r="O70" s="20"/>
+      <c r="O70" s="19"/>
       <c r="P70" s="11" t="s">
         <v>22</v>
       </c>
@@ -10106,7 +10106,7 @@
       <c r="S70" s="11" t="s">
         <v>1526</v>
       </c>
-      <c r="T70" s="19" t="s">
+      <c r="T70" s="18" t="s">
         <v>1527</v>
       </c>
     </row>
@@ -10117,18 +10117,18 @@
       <c r="B71" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D71" s="21"/>
+      <c r="D71" s="24"/>
       <c r="E71" s="11" t="s">
         <v>1528</v>
       </c>
-      <c r="F71" s="21" t="s">
+      <c r="F71" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
       <c r="I71" s="11" t="s">
         <v>85</v>
       </c>
@@ -10140,8 +10140,8 @@
       </c>
       <c r="L71" s="11"/>
       <c r="M71" s="11"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20">
+      <c r="N71" s="19"/>
+      <c r="O71" s="19">
         <v>-32401.63</v>
       </c>
       <c r="P71" s="11" t="s">
@@ -10156,7 +10156,7 @@
       <c r="S71" s="11" t="s">
         <v>1530</v>
       </c>
-      <c r="T71" s="19" t="s">
+      <c r="T71" s="18" t="s">
         <v>1528</v>
       </c>
     </row>
@@ -10167,18 +10167,18 @@
       <c r="B72" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D72" s="21"/>
+      <c r="D72" s="24"/>
       <c r="E72" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
+      <c r="F72" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
       <c r="I72" s="11" t="s">
         <v>26</v>
       </c>
@@ -10194,8 +10194,8 @@
       <c r="M72" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20">
+      <c r="N72" s="19"/>
+      <c r="O72" s="19">
         <v>-429</v>
       </c>
       <c r="P72" s="11" t="s">
@@ -10210,7 +10210,7 @@
       <c r="S72" s="11" t="s">
         <v>1532</v>
       </c>
-      <c r="T72" s="19" t="s">
+      <c r="T72" s="18" t="s">
         <v>1533</v>
       </c>
     </row>
@@ -10221,18 +10221,18 @@
       <c r="B73" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D73" s="21"/>
+      <c r="D73" s="24"/>
       <c r="E73" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G73" s="21"/>
-      <c r="H73" s="21"/>
+      <c r="F73" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
       <c r="I73" s="11" t="s">
         <v>20</v>
       </c>
@@ -10248,10 +10248,10 @@
       <c r="M73" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N73" s="20">
+      <c r="N73" s="19">
         <v>1107.27</v>
       </c>
-      <c r="O73" s="20"/>
+      <c r="O73" s="19"/>
       <c r="P73" s="11" t="s">
         <v>22</v>
       </c>
@@ -10264,7 +10264,7 @@
       <c r="S73" s="11" t="s">
         <v>1504</v>
       </c>
-      <c r="T73" s="19" t="s">
+      <c r="T73" s="18" t="s">
         <v>1535</v>
       </c>
     </row>
@@ -10275,18 +10275,18 @@
       <c r="B74" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D74" s="21"/>
+      <c r="D74" s="24"/>
       <c r="E74" s="11" t="s">
         <v>1528</v>
       </c>
-      <c r="F74" s="21" t="s">
+      <c r="F74" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="G74" s="21"/>
-      <c r="H74" s="21"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
       <c r="I74" s="11" t="s">
         <v>85</v>
       </c>
@@ -10298,8 +10298,8 @@
       </c>
       <c r="L74" s="11"/>
       <c r="M74" s="11"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20">
+      <c r="N74" s="19"/>
+      <c r="O74" s="19">
         <v>-209.52</v>
       </c>
       <c r="P74" s="11" t="s">
@@ -10314,7 +10314,7 @@
       <c r="S74" s="11" t="s">
         <v>1537</v>
       </c>
-      <c r="T74" s="19" t="s">
+      <c r="T74" s="18" t="s">
         <v>1528</v>
       </c>
     </row>
@@ -10325,18 +10325,18 @@
       <c r="B75" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D75" s="21"/>
+      <c r="D75" s="24"/>
       <c r="E75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G75" s="21"/>
-      <c r="H75" s="21"/>
+      <c r="F75" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
       <c r="I75" s="11" t="s">
         <v>115</v>
       </c>
@@ -10348,10 +10348,10 @@
       <c r="M75" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N75" s="20">
+      <c r="N75" s="19">
         <v>230</v>
       </c>
-      <c r="O75" s="20"/>
+      <c r="O75" s="19"/>
       <c r="P75" s="11" t="s">
         <v>22</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="S75" s="11" t="s">
         <v>1539</v>
       </c>
-      <c r="T75" s="19" t="s">
+      <c r="T75" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10375,18 +10375,18 @@
       <c r="B76" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D76" s="21"/>
+      <c r="D76" s="24"/>
       <c r="E76" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F76" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" s="21"/>
-      <c r="H76" s="21"/>
+      <c r="F76" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
       <c r="I76" s="11" t="s">
         <v>20</v>
       </c>
@@ -10402,10 +10402,10 @@
       <c r="M76" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N76" s="20">
+      <c r="N76" s="19">
         <v>2294.0500000000002</v>
       </c>
-      <c r="O76" s="20"/>
+      <c r="O76" s="19"/>
       <c r="P76" s="11" t="s">
         <v>22</v>
       </c>
@@ -10418,7 +10418,7 @@
       <c r="S76" s="11" t="s">
         <v>1541</v>
       </c>
-      <c r="T76" s="19" t="s">
+      <c r="T76" s="18" t="s">
         <v>1542</v>
       </c>
     </row>
@@ -10429,18 +10429,18 @@
       <c r="B77" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D77" s="21"/>
+      <c r="D77" s="24"/>
       <c r="E77" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
+      <c r="F77" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
       <c r="I77" s="11" t="s">
         <v>20</v>
       </c>
@@ -10456,10 +10456,10 @@
       <c r="M77" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N77" s="20">
+      <c r="N77" s="19">
         <v>1228.1199999999999</v>
       </c>
-      <c r="O77" s="20"/>
+      <c r="O77" s="19"/>
       <c r="P77" s="11" t="s">
         <v>22</v>
       </c>
@@ -10472,7 +10472,7 @@
       <c r="S77" s="11" t="s">
         <v>1544</v>
       </c>
-      <c r="T77" s="19" t="s">
+      <c r="T77" s="18" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -10483,18 +10483,18 @@
       <c r="B78" s="11" t="s">
         <v>1521</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="24" t="s">
         <v>1521</v>
       </c>
-      <c r="D78" s="21"/>
+      <c r="D78" s="24"/>
       <c r="E78" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F78" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
+      <c r="F78" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
       <c r="I78" s="11" t="s">
         <v>26</v>
       </c>
@@ -10510,8 +10510,8 @@
       <c r="M78" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20">
+      <c r="N78" s="19"/>
+      <c r="O78" s="19">
         <v>-2182.6999999999998</v>
       </c>
       <c r="P78" s="11" t="s">
@@ -10526,7 +10526,7 @@
       <c r="S78" s="11" t="s">
         <v>1532</v>
       </c>
-      <c r="T78" s="19" t="s">
+      <c r="T78" s="18" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -10537,18 +10537,18 @@
       <c r="B79" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D79" s="21"/>
+      <c r="D79" s="24"/>
       <c r="E79" s="11" t="s">
         <v>1549</v>
       </c>
-      <c r="F79" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
+      <c r="F79" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
       <c r="I79" s="11" t="s">
         <v>26</v>
       </c>
@@ -10564,8 +10564,8 @@
       <c r="M79" s="11" t="s">
         <v>1551</v>
       </c>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20">
+      <c r="N79" s="19"/>
+      <c r="O79" s="19">
         <v>-60</v>
       </c>
       <c r="P79" s="11" t="s">
@@ -10580,7 +10580,7 @@
       <c r="S79" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T79" s="19" t="s">
+      <c r="T79" s="18" t="s">
         <v>1553</v>
       </c>
     </row>
@@ -10591,18 +10591,18 @@
       <c r="B80" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D80" s="21"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="11" t="s">
         <v>1554</v>
       </c>
-      <c r="F80" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
+      <c r="F80" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
       <c r="I80" s="11" t="s">
         <v>26</v>
       </c>
@@ -10618,8 +10618,8 @@
       <c r="M80" s="11" t="s">
         <v>1556</v>
       </c>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20">
+      <c r="N80" s="19"/>
+      <c r="O80" s="19">
         <v>-60</v>
       </c>
       <c r="P80" s="11" t="s">
@@ -10634,7 +10634,7 @@
       <c r="S80" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T80" s="19" t="s">
+      <c r="T80" s="18" t="s">
         <v>1558</v>
       </c>
     </row>
@@ -10645,18 +10645,18 @@
       <c r="B81" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D81" s="21"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="11" t="s">
         <v>1559</v>
       </c>
-      <c r="F81" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
+      <c r="F81" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
       <c r="I81" s="11" t="s">
         <v>26</v>
       </c>
@@ -10672,8 +10672,8 @@
       <c r="M81" s="11" t="s">
         <v>1561</v>
       </c>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20">
+      <c r="N81" s="19"/>
+      <c r="O81" s="19">
         <v>-60</v>
       </c>
       <c r="P81" s="11" t="s">
@@ -10688,7 +10688,7 @@
       <c r="S81" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T81" s="19" t="s">
+      <c r="T81" s="18" t="s">
         <v>1563</v>
       </c>
     </row>
@@ -10699,18 +10699,18 @@
       <c r="B82" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D82" s="21"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="11" t="s">
         <v>1564</v>
       </c>
-      <c r="F82" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
+      <c r="F82" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
       <c r="I82" s="11" t="s">
         <v>26</v>
       </c>
@@ -10726,8 +10726,8 @@
       <c r="M82" s="11" t="s">
         <v>871</v>
       </c>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20">
+      <c r="N82" s="19"/>
+      <c r="O82" s="19">
         <v>-60</v>
       </c>
       <c r="P82" s="11" t="s">
@@ -10742,7 +10742,7 @@
       <c r="S82" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T82" s="19" t="s">
+      <c r="T82" s="18" t="s">
         <v>1567</v>
       </c>
     </row>
@@ -10753,18 +10753,18 @@
       <c r="B83" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D83" s="21"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="11" t="s">
         <v>1568</v>
       </c>
-      <c r="F83" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
+      <c r="F83" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
       <c r="I83" s="11" t="s">
         <v>26</v>
       </c>
@@ -10780,8 +10780,8 @@
       <c r="M83" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20">
+      <c r="N83" s="19"/>
+      <c r="O83" s="19">
         <v>-60</v>
       </c>
       <c r="P83" s="11" t="s">
@@ -10796,7 +10796,7 @@
       <c r="S83" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T83" s="19" t="s">
+      <c r="T83" s="18" t="s">
         <v>1571</v>
       </c>
     </row>
@@ -10807,18 +10807,18 @@
       <c r="B84" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D84" s="21"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="11" t="s">
         <v>1572</v>
       </c>
-      <c r="F84" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
+      <c r="F84" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
       <c r="I84" s="11" t="s">
         <v>26</v>
       </c>
@@ -10834,8 +10834,8 @@
       <c r="M84" s="11" t="s">
         <v>1574</v>
       </c>
-      <c r="N84" s="20"/>
-      <c r="O84" s="20">
+      <c r="N84" s="19"/>
+      <c r="O84" s="19">
         <v>-60</v>
       </c>
       <c r="P84" s="11" t="s">
@@ -10850,7 +10850,7 @@
       <c r="S84" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T84" s="19" t="s">
+      <c r="T84" s="18" t="s">
         <v>1576</v>
       </c>
     </row>
@@ -10861,18 +10861,18 @@
       <c r="B85" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D85" s="21"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="11" t="s">
         <v>1577</v>
       </c>
-      <c r="F85" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
+      <c r="F85" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
       <c r="I85" s="11" t="s">
         <v>26</v>
       </c>
@@ -10888,8 +10888,8 @@
       <c r="M85" s="11" t="s">
         <v>1578</v>
       </c>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20">
+      <c r="N85" s="19"/>
+      <c r="O85" s="19">
         <v>-98.9</v>
       </c>
       <c r="P85" s="11" t="s">
@@ -10904,7 +10904,7 @@
       <c r="S85" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T85" s="19" t="s">
+      <c r="T85" s="18" t="s">
         <v>1580</v>
       </c>
     </row>
@@ -10915,18 +10915,18 @@
       <c r="B86" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D86" s="21"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F86" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
+      <c r="F86" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
       <c r="I86" s="11" t="s">
         <v>26</v>
       </c>
@@ -10942,8 +10942,8 @@
       <c r="M86" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="N86" s="20"/>
-      <c r="O86" s="20">
+      <c r="N86" s="19"/>
+      <c r="O86" s="19">
         <v>-60</v>
       </c>
       <c r="P86" s="11" t="s">
@@ -10958,7 +10958,7 @@
       <c r="S86" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T86" s="19" t="s">
+      <c r="T86" s="18" t="s">
         <v>1582</v>
       </c>
     </row>
@@ -10969,18 +10969,18 @@
       <c r="B87" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D87" s="21"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="11" t="s">
         <v>1444</v>
       </c>
-      <c r="F87" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
+      <c r="F87" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
       <c r="I87" s="11" t="s">
         <v>26</v>
       </c>
@@ -10996,8 +10996,8 @@
       <c r="M87" s="11" t="s">
         <v>1446</v>
       </c>
-      <c r="N87" s="20"/>
-      <c r="O87" s="20">
+      <c r="N87" s="19"/>
+      <c r="O87" s="19">
         <v>-876.8</v>
       </c>
       <c r="P87" s="11" t="s">
@@ -11012,7 +11012,7 @@
       <c r="S87" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T87" s="19" t="s">
+      <c r="T87" s="18" t="s">
         <v>1584</v>
       </c>
     </row>
@@ -11023,18 +11023,18 @@
       <c r="B88" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D88" s="21"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="11" t="s">
         <v>1585</v>
       </c>
-      <c r="F88" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
+      <c r="F88" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
       <c r="I88" s="11" t="s">
         <v>26</v>
       </c>
@@ -11050,8 +11050,8 @@
       <c r="M88" s="11" t="s">
         <v>1587</v>
       </c>
-      <c r="N88" s="20"/>
-      <c r="O88" s="20">
+      <c r="N88" s="19"/>
+      <c r="O88" s="19">
         <v>-60</v>
       </c>
       <c r="P88" s="11" t="s">
@@ -11066,7 +11066,7 @@
       <c r="S88" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T88" s="19" t="s">
+      <c r="T88" s="18" t="s">
         <v>1589</v>
       </c>
     </row>
@@ -11077,18 +11077,18 @@
       <c r="B89" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D89" s="21"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="11" t="s">
         <v>1577</v>
       </c>
-      <c r="F89" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="21"/>
-      <c r="H89" s="21"/>
+      <c r="F89" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
       <c r="I89" s="11" t="s">
         <v>26</v>
       </c>
@@ -11104,8 +11104,8 @@
       <c r="M89" s="11" t="s">
         <v>1578</v>
       </c>
-      <c r="N89" s="20"/>
-      <c r="O89" s="20">
+      <c r="N89" s="19"/>
+      <c r="O89" s="19">
         <v>-715</v>
       </c>
       <c r="P89" s="11" t="s">
@@ -11120,7 +11120,7 @@
       <c r="S89" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T89" s="19" t="s">
+      <c r="T89" s="18" t="s">
         <v>1591</v>
       </c>
     </row>
@@ -11131,18 +11131,18 @@
       <c r="B90" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D90" s="21"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="11" t="s">
         <v>1592</v>
       </c>
-      <c r="F90" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
+      <c r="F90" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
       <c r="I90" s="11" t="s">
         <v>26</v>
       </c>
@@ -11158,10 +11158,10 @@
       <c r="M90" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N90" s="20">
+      <c r="N90" s="19">
         <v>500</v>
       </c>
-      <c r="O90" s="20"/>
+      <c r="O90" s="19"/>
       <c r="P90" s="11" t="s">
         <v>22</v>
       </c>
@@ -11174,7 +11174,7 @@
       <c r="S90" s="11" t="s">
         <v>1595</v>
       </c>
-      <c r="T90" s="19" t="s">
+      <c r="T90" s="18" t="s">
         <v>1596</v>
       </c>
     </row>
@@ -11185,18 +11185,18 @@
       <c r="B91" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D91" s="21"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="11" t="s">
         <v>1597</v>
       </c>
-      <c r="F91" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" s="21"/>
-      <c r="H91" s="21"/>
+      <c r="F91" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
       <c r="I91" s="11" t="s">
         <v>26</v>
       </c>
@@ -11212,8 +11212,8 @@
       <c r="M91" s="11" t="s">
         <v>1599</v>
       </c>
-      <c r="N91" s="20"/>
-      <c r="O91" s="20">
+      <c r="N91" s="19"/>
+      <c r="O91" s="19">
         <v>-60</v>
       </c>
       <c r="P91" s="11" t="s">
@@ -11228,7 +11228,7 @@
       <c r="S91" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T91" s="19" t="s">
+      <c r="T91" s="18" t="s">
         <v>1601</v>
       </c>
     </row>
@@ -11239,18 +11239,18 @@
       <c r="B92" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D92" s="21"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="11" t="s">
         <v>1602</v>
       </c>
-      <c r="F92" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
+      <c r="F92" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
       <c r="I92" s="11" t="s">
         <v>26</v>
       </c>
@@ -11266,8 +11266,8 @@
       <c r="M92" s="11" t="s">
         <v>1604</v>
       </c>
-      <c r="N92" s="20"/>
-      <c r="O92" s="20">
+      <c r="N92" s="19"/>
+      <c r="O92" s="19">
         <v>-60</v>
       </c>
       <c r="P92" s="11" t="s">
@@ -11282,7 +11282,7 @@
       <c r="S92" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T92" s="19" t="s">
+      <c r="T92" s="18" t="s">
         <v>1606</v>
       </c>
     </row>
@@ -11293,18 +11293,18 @@
       <c r="B93" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D93" s="21"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="11" t="s">
         <v>1444</v>
       </c>
-      <c r="F93" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" s="21"/>
-      <c r="H93" s="21"/>
+      <c r="F93" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
       <c r="I93" s="11" t="s">
         <v>26</v>
       </c>
@@ -11320,8 +11320,8 @@
       <c r="M93" s="11" t="s">
         <v>1446</v>
       </c>
-      <c r="N93" s="20"/>
-      <c r="O93" s="20">
+      <c r="N93" s="19"/>
+      <c r="O93" s="19">
         <v>-506.9</v>
       </c>
       <c r="P93" s="11" t="s">
@@ -11336,7 +11336,7 @@
       <c r="S93" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T93" s="19" t="s">
+      <c r="T93" s="18" t="s">
         <v>1608</v>
       </c>
     </row>
@@ -11347,18 +11347,18 @@
       <c r="B94" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D94" s="21"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="11" t="s">
         <v>1577</v>
       </c>
-      <c r="F94" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G94" s="21"/>
-      <c r="H94" s="21"/>
+      <c r="F94" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
       <c r="I94" s="11" t="s">
         <v>26</v>
       </c>
@@ -11374,8 +11374,8 @@
       <c r="M94" s="11" t="s">
         <v>1578</v>
       </c>
-      <c r="N94" s="20"/>
-      <c r="O94" s="20">
+      <c r="N94" s="19"/>
+      <c r="O94" s="19">
         <v>-1241.06</v>
       </c>
       <c r="P94" s="11" t="s">
@@ -11390,7 +11390,7 @@
       <c r="S94" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T94" s="19" t="s">
+      <c r="T94" s="18" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -11401,18 +11401,18 @@
       <c r="B95" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D95" s="21"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="11" t="s">
         <v>1611</v>
       </c>
-      <c r="F95" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G95" s="21"/>
-      <c r="H95" s="21"/>
+      <c r="F95" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
       <c r="I95" s="11" t="s">
         <v>26</v>
       </c>
@@ -11428,10 +11428,10 @@
       <c r="M95" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N95" s="20">
+      <c r="N95" s="19">
         <v>500</v>
       </c>
-      <c r="O95" s="20"/>
+      <c r="O95" s="19"/>
       <c r="P95" s="11" t="s">
         <v>22</v>
       </c>
@@ -11444,7 +11444,7 @@
       <c r="S95" s="11" t="s">
         <v>1614</v>
       </c>
-      <c r="T95" s="19" t="s">
+      <c r="T95" s="18" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -11455,18 +11455,18 @@
       <c r="B96" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D96" s="21"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="11" t="s">
         <v>1616</v>
       </c>
-      <c r="F96" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G96" s="21"/>
-      <c r="H96" s="21"/>
+      <c r="F96" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
       <c r="I96" s="11" t="s">
         <v>26</v>
       </c>
@@ -11482,8 +11482,8 @@
       <c r="M96" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20">
+      <c r="N96" s="19"/>
+      <c r="O96" s="19">
         <v>-6</v>
       </c>
       <c r="P96" s="11" t="s">
@@ -11498,7 +11498,7 @@
       <c r="S96" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T96" s="19" t="s">
+      <c r="T96" s="18" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -11509,18 +11509,18 @@
       <c r="B97" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D97" s="21"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="11" t="s">
         <v>1444</v>
       </c>
-      <c r="F97" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G97" s="21"/>
-      <c r="H97" s="21"/>
+      <c r="F97" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
       <c r="I97" s="11" t="s">
         <v>26</v>
       </c>
@@ -11536,8 +11536,8 @@
       <c r="M97" s="11" t="s">
         <v>1446</v>
       </c>
-      <c r="N97" s="20"/>
-      <c r="O97" s="20">
+      <c r="N97" s="19"/>
+      <c r="O97" s="19">
         <v>-14025</v>
       </c>
       <c r="P97" s="11" t="s">
@@ -11552,7 +11552,7 @@
       <c r="S97" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T97" s="19" t="s">
+      <c r="T97" s="18" t="s">
         <v>1621</v>
       </c>
     </row>
@@ -11563,18 +11563,18 @@
       <c r="B98" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D98" s="21"/>
+      <c r="D98" s="24"/>
       <c r="E98" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="F98" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G98" s="21"/>
-      <c r="H98" s="21"/>
+      <c r="F98" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
       <c r="I98" s="11" t="s">
         <v>26</v>
       </c>
@@ -11590,8 +11590,8 @@
       <c r="M98" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="N98" s="20"/>
-      <c r="O98" s="20">
+      <c r="N98" s="19"/>
+      <c r="O98" s="19">
         <v>-60</v>
       </c>
       <c r="P98" s="11" t="s">
@@ -11606,7 +11606,7 @@
       <c r="S98" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T98" s="19" t="s">
+      <c r="T98" s="18" t="s">
         <v>1623</v>
       </c>
     </row>
@@ -11617,18 +11617,18 @@
       <c r="B99" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D99" s="21"/>
+      <c r="D99" s="24"/>
       <c r="E99" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F99" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G99" s="21"/>
-      <c r="H99" s="21"/>
+      <c r="F99" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
       <c r="I99" s="11" t="s">
         <v>26</v>
       </c>
@@ -11644,8 +11644,8 @@
       <c r="M99" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="N99" s="20"/>
-      <c r="O99" s="20">
+      <c r="N99" s="19"/>
+      <c r="O99" s="19">
         <v>-60</v>
       </c>
       <c r="P99" s="11" t="s">
@@ -11660,7 +11660,7 @@
       <c r="S99" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T99" s="19" t="s">
+      <c r="T99" s="18" t="s">
         <v>1625</v>
       </c>
     </row>
@@ -11671,18 +11671,18 @@
       <c r="B100" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D100" s="21"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F100" s="21" t="s">
+      <c r="F100" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="G100" s="21"/>
-      <c r="H100" s="21"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
       <c r="I100" s="11" t="s">
         <v>1428</v>
       </c>
@@ -11694,10 +11694,10 @@
       <c r="M100" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N100" s="20">
+      <c r="N100" s="19">
         <v>60</v>
       </c>
-      <c r="O100" s="20"/>
+      <c r="O100" s="19"/>
       <c r="P100" s="11" t="s">
         <v>22</v>
       </c>
@@ -11708,7 +11708,7 @@
       <c r="S100" s="11" t="s">
         <v>1626</v>
       </c>
-      <c r="T100" s="19" t="s">
+      <c r="T100" s="18" t="s">
         <v>1627</v>
       </c>
     </row>
@@ -11719,18 +11719,18 @@
       <c r="B101" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D101" s="21"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="11" t="s">
         <v>1628</v>
       </c>
-      <c r="F101" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G101" s="21"/>
-      <c r="H101" s="21"/>
+      <c r="F101" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
       <c r="I101" s="11" t="s">
         <v>26</v>
       </c>
@@ -11746,8 +11746,8 @@
       <c r="M101" s="11" t="s">
         <v>1630</v>
       </c>
-      <c r="N101" s="20"/>
-      <c r="O101" s="20">
+      <c r="N101" s="19"/>
+      <c r="O101" s="19">
         <v>-60</v>
       </c>
       <c r="P101" s="11" t="s">
@@ -11762,7 +11762,7 @@
       <c r="S101" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T101" s="19" t="s">
+      <c r="T101" s="18" t="s">
         <v>1632</v>
       </c>
     </row>
@@ -11773,18 +11773,18 @@
       <c r="B102" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D102" s="21"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="11" t="s">
         <v>1633</v>
       </c>
-      <c r="F102" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G102" s="21"/>
-      <c r="H102" s="21"/>
+      <c r="F102" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
       <c r="I102" s="11" t="s">
         <v>26</v>
       </c>
@@ -11800,8 +11800,8 @@
       <c r="M102" s="11" t="s">
         <v>1634</v>
       </c>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20">
+      <c r="N102" s="19"/>
+      <c r="O102" s="19">
         <v>-1700.9</v>
       </c>
       <c r="P102" s="11" t="s">
@@ -11816,7 +11816,7 @@
       <c r="S102" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T102" s="19" t="s">
+      <c r="T102" s="18" t="s">
         <v>1636</v>
       </c>
     </row>
@@ -11827,18 +11827,18 @@
       <c r="B103" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D103" s="21"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="11" t="s">
         <v>1637</v>
       </c>
-      <c r="F103" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
+      <c r="F103" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
       <c r="I103" s="11" t="s">
         <v>26</v>
       </c>
@@ -11854,8 +11854,8 @@
       <c r="M103" s="11" t="s">
         <v>1639</v>
       </c>
-      <c r="N103" s="20"/>
-      <c r="O103" s="20">
+      <c r="N103" s="19"/>
+      <c r="O103" s="19">
         <v>-60</v>
       </c>
       <c r="P103" s="11" t="s">
@@ -11870,7 +11870,7 @@
       <c r="S103" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T103" s="19" t="s">
+      <c r="T103" s="18" t="s">
         <v>1641</v>
       </c>
     </row>
@@ -11881,18 +11881,18 @@
       <c r="B104" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D104" s="21"/>
+      <c r="D104" s="24"/>
       <c r="E104" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F104" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G104" s="21"/>
-      <c r="H104" s="21"/>
+      <c r="F104" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24"/>
       <c r="I104" s="11" t="s">
         <v>20</v>
       </c>
@@ -11908,10 +11908,10 @@
       <c r="M104" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N104" s="20">
+      <c r="N104" s="19">
         <v>801.7</v>
       </c>
-      <c r="O104" s="20"/>
+      <c r="O104" s="19"/>
       <c r="P104" s="11" t="s">
         <v>22</v>
       </c>
@@ -11924,7 +11924,7 @@
       <c r="S104" s="11" t="s">
         <v>1643</v>
       </c>
-      <c r="T104" s="19" t="s">
+      <c r="T104" s="18" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -11935,18 +11935,18 @@
       <c r="B105" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D105" s="21"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="11" t="s">
         <v>904</v>
       </c>
-      <c r="F105" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G105" s="21"/>
-      <c r="H105" s="21"/>
+      <c r="F105" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24"/>
       <c r="I105" s="11" t="s">
         <v>26</v>
       </c>
@@ -11962,8 +11962,8 @@
       <c r="M105" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="N105" s="20"/>
-      <c r="O105" s="20">
+      <c r="N105" s="19"/>
+      <c r="O105" s="19">
         <v>-60</v>
       </c>
       <c r="P105" s="11" t="s">
@@ -11978,7 +11978,7 @@
       <c r="S105" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T105" s="19" t="s">
+      <c r="T105" s="18" t="s">
         <v>1646</v>
       </c>
     </row>
@@ -11989,18 +11989,18 @@
       <c r="B106" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D106" s="21"/>
+      <c r="D106" s="24"/>
       <c r="E106" s="11" t="s">
         <v>1647</v>
       </c>
-      <c r="F106" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G106" s="21"/>
-      <c r="H106" s="21"/>
+      <c r="F106" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
       <c r="I106" s="11" t="s">
         <v>26</v>
       </c>
@@ -12016,8 +12016,8 @@
       <c r="M106" s="11" t="s">
         <v>1649</v>
       </c>
-      <c r="N106" s="20"/>
-      <c r="O106" s="20">
+      <c r="N106" s="19"/>
+      <c r="O106" s="19">
         <v>-60</v>
       </c>
       <c r="P106" s="11" t="s">
@@ -12032,7 +12032,7 @@
       <c r="S106" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T106" s="19" t="s">
+      <c r="T106" s="18" t="s">
         <v>1651</v>
       </c>
     </row>
@@ -12043,18 +12043,18 @@
       <c r="B107" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D107" s="21"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="11" t="s">
         <v>1652</v>
       </c>
-      <c r="F107" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G107" s="21"/>
-      <c r="H107" s="21"/>
+      <c r="F107" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" s="24"/>
+      <c r="H107" s="24"/>
       <c r="I107" s="11" t="s">
         <v>26</v>
       </c>
@@ -12070,8 +12070,8 @@
       <c r="M107" s="11" t="s">
         <v>1654</v>
       </c>
-      <c r="N107" s="20"/>
-      <c r="O107" s="20">
+      <c r="N107" s="19"/>
+      <c r="O107" s="19">
         <v>-411.8</v>
       </c>
       <c r="P107" s="11" t="s">
@@ -12086,7 +12086,7 @@
       <c r="S107" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T107" s="19" t="s">
+      <c r="T107" s="18" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -12097,18 +12097,18 @@
       <c r="B108" s="11" t="s">
         <v>1548</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="24" t="s">
         <v>1548</v>
       </c>
-      <c r="D108" s="21"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="F108" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G108" s="21"/>
-      <c r="H108" s="21"/>
+      <c r="F108" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24"/>
       <c r="I108" s="11" t="s">
         <v>26</v>
       </c>
@@ -12124,8 +12124,8 @@
       <c r="M108" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="N108" s="20"/>
-      <c r="O108" s="20">
+      <c r="N108" s="19"/>
+      <c r="O108" s="19">
         <v>-60</v>
       </c>
       <c r="P108" s="11" t="s">
@@ -12140,7 +12140,7 @@
       <c r="S108" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="T108" s="19" t="s">
+      <c r="T108" s="18" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -12151,18 +12151,18 @@
       <c r="B109" s="11" t="s">
         <v>1659</v>
       </c>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="24" t="s">
         <v>1659</v>
       </c>
-      <c r="D109" s="21"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F109" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G109" s="21"/>
-      <c r="H109" s="21"/>
+      <c r="F109" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24"/>
       <c r="I109" s="11" t="s">
         <v>20</v>
       </c>
@@ -12178,10 +12178,10 @@
       <c r="M109" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N109" s="20">
+      <c r="N109" s="19">
         <v>63.83</v>
       </c>
-      <c r="O109" s="20"/>
+      <c r="O109" s="19"/>
       <c r="P109" s="11" t="s">
         <v>22</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="S109" s="11" t="s">
         <v>1661</v>
       </c>
-      <c r="T109" s="19" t="s">
+      <c r="T109" s="18" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -12205,18 +12205,18 @@
       <c r="B110" s="11" t="s">
         <v>1659</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="24" t="s">
         <v>1659</v>
       </c>
-      <c r="D110" s="21"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F110" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G110" s="21"/>
-      <c r="H110" s="21"/>
+      <c r="F110" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" s="24"/>
+      <c r="H110" s="24"/>
       <c r="I110" s="11" t="s">
         <v>20</v>
       </c>
@@ -12232,10 +12232,10 @@
       <c r="M110" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N110" s="20">
+      <c r="N110" s="19">
         <v>1548.39</v>
       </c>
-      <c r="O110" s="20"/>
+      <c r="O110" s="19"/>
       <c r="P110" s="11" t="s">
         <v>22</v>
       </c>
@@ -12248,7 +12248,7 @@
       <c r="S110" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="T110" s="19" t="s">
+      <c r="T110" s="18" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -12259,18 +12259,18 @@
       <c r="B111" s="11" t="s">
         <v>1659</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="24" t="s">
         <v>1659</v>
       </c>
-      <c r="D111" s="21"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="11" t="s">
         <v>1665</v>
       </c>
-      <c r="F111" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G111" s="21"/>
-      <c r="H111" s="21"/>
+      <c r="F111" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24"/>
       <c r="I111" s="11" t="s">
         <v>20</v>
       </c>
@@ -12286,10 +12286,10 @@
       <c r="M111" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N111" s="20">
+      <c r="N111" s="19">
         <v>500</v>
       </c>
-      <c r="O111" s="20"/>
+      <c r="O111" s="19"/>
       <c r="P111" s="11" t="s">
         <v>22</v>
       </c>
@@ -12302,7 +12302,7 @@
       <c r="S111" s="11" t="s">
         <v>1668</v>
       </c>
-      <c r="T111" s="19" t="s">
+      <c r="T111" s="18" t="s">
         <v>524</v>
       </c>
     </row>
@@ -12313,18 +12313,18 @@
       <c r="B112" s="11" t="s">
         <v>1659</v>
       </c>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="24" t="s">
         <v>1659</v>
       </c>
-      <c r="D112" s="21"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F112" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G112" s="21"/>
-      <c r="H112" s="21"/>
+      <c r="F112" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24"/>
       <c r="I112" s="11" t="s">
         <v>406</v>
       </c>
@@ -12336,10 +12336,10 @@
       <c r="M112" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N112" s="20">
+      <c r="N112" s="19">
         <v>60</v>
       </c>
-      <c r="O112" s="20"/>
+      <c r="O112" s="19"/>
       <c r="P112" s="11" t="s">
         <v>22</v>
       </c>
@@ -12352,7 +12352,7 @@
       <c r="S112" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="T112" s="19"/>
+      <c r="T112" s="18"/>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="11" t="s">
@@ -12361,18 +12361,18 @@
       <c r="B113" s="11" t="s">
         <v>1659</v>
       </c>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="24" t="s">
         <v>1659</v>
       </c>
-      <c r="D113" s="21"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F113" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
+      <c r="F113" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24"/>
       <c r="I113" s="11" t="s">
         <v>20</v>
       </c>
@@ -12388,10 +12388,10 @@
       <c r="M113" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N113" s="20">
+      <c r="N113" s="19">
         <v>196.5</v>
       </c>
-      <c r="O113" s="20"/>
+      <c r="O113" s="19"/>
       <c r="P113" s="11" t="s">
         <v>22</v>
       </c>
@@ -12404,7 +12404,7 @@
       <c r="S113" s="11" t="s">
         <v>1671</v>
       </c>
-      <c r="T113" s="19" t="s">
+      <c r="T113" s="18" t="s">
         <v>1672</v>
       </c>
     </row>
@@ -12415,18 +12415,18 @@
       <c r="B114" s="11" t="s">
         <v>1673</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="24" t="s">
         <v>1673</v>
       </c>
-      <c r="D114" s="21"/>
+      <c r="D114" s="24"/>
       <c r="E114" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F114" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
+      <c r="F114" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G114" s="24"/>
+      <c r="H114" s="24"/>
       <c r="I114" s="11" t="s">
         <v>20</v>
       </c>
@@ -12442,10 +12442,10 @@
       <c r="M114" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N114" s="20">
+      <c r="N114" s="19">
         <v>2000.3</v>
       </c>
-      <c r="O114" s="20"/>
+      <c r="O114" s="19"/>
       <c r="P114" s="11" t="s">
         <v>22</v>
       </c>
@@ -12458,7 +12458,7 @@
       <c r="S114" s="11" t="s">
         <v>1675</v>
       </c>
-      <c r="T114" s="19" t="s">
+      <c r="T114" s="18" t="s">
         <v>1676</v>
       </c>
     </row>
@@ -12469,18 +12469,18 @@
       <c r="B115" s="11" t="s">
         <v>1673</v>
       </c>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="24" t="s">
         <v>1673</v>
       </c>
-      <c r="D115" s="21"/>
+      <c r="D115" s="24"/>
       <c r="E115" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F115" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
+      <c r="F115" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24"/>
       <c r="I115" s="11" t="s">
         <v>20</v>
       </c>
@@ -12496,10 +12496,10 @@
       <c r="M115" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N115" s="20">
+      <c r="N115" s="19">
         <v>245.62</v>
       </c>
-      <c r="O115" s="20"/>
+      <c r="O115" s="19"/>
       <c r="P115" s="11" t="s">
         <v>22</v>
       </c>
@@ -12512,7 +12512,7 @@
       <c r="S115" s="11" t="s">
         <v>1675</v>
       </c>
-      <c r="T115" s="19" t="s">
+      <c r="T115" s="18" t="s">
         <v>1677</v>
       </c>
     </row>
@@ -12523,18 +12523,18 @@
       <c r="B116" s="11" t="s">
         <v>1673</v>
       </c>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="24" t="s">
         <v>1673</v>
       </c>
-      <c r="D116" s="21"/>
+      <c r="D116" s="24"/>
       <c r="E116" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F116" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G116" s="21"/>
-      <c r="H116" s="21"/>
+      <c r="F116" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24"/>
       <c r="I116" s="11" t="s">
         <v>20</v>
       </c>
@@ -12550,10 +12550,10 @@
       <c r="M116" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N116" s="20">
+      <c r="N116" s="19">
         <v>2029.73</v>
       </c>
-      <c r="O116" s="20"/>
+      <c r="O116" s="19"/>
       <c r="P116" s="11" t="s">
         <v>22</v>
       </c>
@@ -12566,7 +12566,7 @@
       <c r="S116" s="11" t="s">
         <v>1679</v>
       </c>
-      <c r="T116" s="19" t="s">
+      <c r="T116" s="18" t="s">
         <v>1680</v>
       </c>
     </row>
@@ -12577,18 +12577,18 @@
       <c r="B117" s="11" t="s">
         <v>1673</v>
       </c>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="24" t="s">
         <v>1673</v>
       </c>
-      <c r="D117" s="21"/>
+      <c r="D117" s="24"/>
       <c r="E117" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F117" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G117" s="21"/>
-      <c r="H117" s="21"/>
+      <c r="F117" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24"/>
       <c r="I117" s="11" t="s">
         <v>20</v>
       </c>
@@ -12604,10 +12604,10 @@
       <c r="M117" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N117" s="20">
+      <c r="N117" s="19">
         <v>270.19</v>
       </c>
-      <c r="O117" s="20"/>
+      <c r="O117" s="19"/>
       <c r="P117" s="11" t="s">
         <v>22</v>
       </c>
@@ -12620,7 +12620,7 @@
       <c r="S117" s="11" t="s">
         <v>1679</v>
       </c>
-      <c r="T117" s="19" t="s">
+      <c r="T117" s="18" t="s">
         <v>1681</v>
       </c>
     </row>
@@ -12631,18 +12631,18 @@
       <c r="B118" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D118" s="21"/>
+      <c r="D118" s="24"/>
       <c r="E118" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F118" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
+      <c r="F118" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
       <c r="I118" s="11" t="s">
         <v>20</v>
       </c>
@@ -12658,10 +12658,10 @@
       <c r="M118" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N118" s="20">
+      <c r="N118" s="19">
         <v>7.86</v>
       </c>
-      <c r="O118" s="20"/>
+      <c r="O118" s="19"/>
       <c r="P118" s="11" t="s">
         <v>22</v>
       </c>
@@ -12674,7 +12674,7 @@
       <c r="S118" s="11" t="s">
         <v>1684</v>
       </c>
-      <c r="T118" s="19" t="s">
+      <c r="T118" s="18" t="s">
         <v>1685</v>
       </c>
     </row>
@@ -12685,18 +12685,18 @@
       <c r="B119" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D119" s="21"/>
+      <c r="D119" s="24"/>
       <c r="E119" s="11" t="s">
         <v>1686</v>
       </c>
-      <c r="F119" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G119" s="21"/>
-      <c r="H119" s="21"/>
+      <c r="F119" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G119" s="24"/>
+      <c r="H119" s="24"/>
       <c r="I119" s="11" t="s">
         <v>41</v>
       </c>
@@ -12712,10 +12712,10 @@
       <c r="M119" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N119" s="20">
+      <c r="N119" s="19">
         <v>500</v>
       </c>
-      <c r="O119" s="20"/>
+      <c r="O119" s="19"/>
       <c r="P119" s="11" t="s">
         <v>22</v>
       </c>
@@ -12728,7 +12728,7 @@
       <c r="S119" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="T119" s="19" t="s">
+      <c r="T119" s="18" t="s">
         <v>1689</v>
       </c>
     </row>
@@ -12739,18 +12739,18 @@
       <c r="B120" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D120" s="21"/>
+      <c r="D120" s="24"/>
       <c r="E120" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F120" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G120" s="21"/>
-      <c r="H120" s="21"/>
+      <c r="F120" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G120" s="24"/>
+      <c r="H120" s="24"/>
       <c r="I120" s="11" t="s">
         <v>20</v>
       </c>
@@ -12766,10 +12766,10 @@
       <c r="M120" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N120" s="20">
+      <c r="N120" s="19">
         <v>55.02</v>
       </c>
-      <c r="O120" s="20"/>
+      <c r="O120" s="19"/>
       <c r="P120" s="11" t="s">
         <v>22</v>
       </c>
@@ -12782,7 +12782,7 @@
       <c r="S120" s="11" t="s">
         <v>1691</v>
       </c>
-      <c r="T120" s="19" t="s">
+      <c r="T120" s="18" t="s">
         <v>1692</v>
       </c>
     </row>
@@ -12793,18 +12793,18 @@
       <c r="B121" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D121" s="21"/>
+      <c r="D121" s="24"/>
       <c r="E121" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F121" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G121" s="21"/>
-      <c r="H121" s="21"/>
+      <c r="F121" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G121" s="24"/>
+      <c r="H121" s="24"/>
       <c r="I121" s="11" t="s">
         <v>20</v>
       </c>
@@ -12820,10 +12820,10 @@
       <c r="M121" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N121" s="20">
+      <c r="N121" s="19">
         <v>3782.62</v>
       </c>
-      <c r="O121" s="20"/>
+      <c r="O121" s="19"/>
       <c r="P121" s="11" t="s">
         <v>22</v>
       </c>
@@ -12836,7 +12836,7 @@
       <c r="S121" s="11" t="s">
         <v>1691</v>
       </c>
-      <c r="T121" s="19" t="s">
+      <c r="T121" s="18" t="s">
         <v>1693</v>
       </c>
     </row>
@@ -12847,18 +12847,18 @@
       <c r="B122" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D122" s="21"/>
+      <c r="D122" s="24"/>
       <c r="E122" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F122" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
+      <c r="F122" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
       <c r="I122" s="11" t="s">
         <v>20</v>
       </c>
@@ -12874,10 +12874,10 @@
       <c r="M122" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N122" s="20">
+      <c r="N122" s="19">
         <v>722.06</v>
       </c>
-      <c r="O122" s="20"/>
+      <c r="O122" s="19"/>
       <c r="P122" s="11" t="s">
         <v>22</v>
       </c>
@@ -12890,7 +12890,7 @@
       <c r="S122" s="11" t="s">
         <v>1695</v>
       </c>
-      <c r="T122" s="19" t="s">
+      <c r="T122" s="18" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -12901,18 +12901,18 @@
       <c r="B123" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D123" s="21"/>
+      <c r="D123" s="24"/>
       <c r="E123" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F123" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" s="21"/>
-      <c r="H123" s="21"/>
+      <c r="F123" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G123" s="24"/>
+      <c r="H123" s="24"/>
       <c r="I123" s="11" t="s">
         <v>20</v>
       </c>
@@ -12928,10 +12928,10 @@
       <c r="M123" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N123" s="20">
+      <c r="N123" s="19">
         <v>1179</v>
       </c>
-      <c r="O123" s="20"/>
+      <c r="O123" s="19"/>
       <c r="P123" s="11" t="s">
         <v>22</v>
       </c>
@@ -12944,7 +12944,7 @@
       <c r="S123" s="11" t="s">
         <v>1698</v>
       </c>
-      <c r="T123" s="19" t="s">
+      <c r="T123" s="18" t="s">
         <v>1699</v>
       </c>
     </row>
@@ -12955,18 +12955,18 @@
       <c r="B124" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D124" s="21"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F124" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G124" s="21"/>
-      <c r="H124" s="21"/>
+      <c r="F124" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24"/>
       <c r="I124" s="11" t="s">
         <v>20</v>
       </c>
@@ -12982,10 +12982,10 @@
       <c r="M124" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N124" s="20">
+      <c r="N124" s="19">
         <v>3906.27</v>
       </c>
-      <c r="O124" s="20"/>
+      <c r="O124" s="19"/>
       <c r="P124" s="11" t="s">
         <v>22</v>
       </c>
@@ -12998,7 +12998,7 @@
       <c r="S124" s="11" t="s">
         <v>1701</v>
       </c>
-      <c r="T124" s="19" t="s">
+      <c r="T124" s="18" t="s">
         <v>1702</v>
       </c>
     </row>
@@ -13009,18 +13009,18 @@
       <c r="B125" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D125" s="21"/>
+      <c r="D125" s="24"/>
       <c r="E125" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F125" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G125" s="21"/>
-      <c r="H125" s="21"/>
+      <c r="F125" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24"/>
       <c r="I125" s="11" t="s">
         <v>20</v>
       </c>
@@ -13036,10 +13036,10 @@
       <c r="M125" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N125" s="20">
+      <c r="N125" s="19">
         <v>881.25</v>
       </c>
-      <c r="O125" s="20"/>
+      <c r="O125" s="19"/>
       <c r="P125" s="11" t="s">
         <v>22</v>
       </c>
@@ -13052,7 +13052,7 @@
       <c r="S125" s="11" t="s">
         <v>1704</v>
       </c>
-      <c r="T125" s="19" t="s">
+      <c r="T125" s="18" t="s">
         <v>1705</v>
       </c>
     </row>
@@ -13063,18 +13063,18 @@
       <c r="B126" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D126" s="21"/>
+      <c r="D126" s="24"/>
       <c r="E126" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F126" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G126" s="21"/>
-      <c r="H126" s="21"/>
+      <c r="F126" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
       <c r="I126" s="11" t="s">
         <v>20</v>
       </c>
@@ -13090,10 +13090,10 @@
       <c r="M126" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N126" s="20">
+      <c r="N126" s="19">
         <v>540.38</v>
       </c>
-      <c r="O126" s="20"/>
+      <c r="O126" s="19"/>
       <c r="P126" s="11" t="s">
         <v>22</v>
       </c>
@@ -13106,7 +13106,7 @@
       <c r="S126" s="11" t="s">
         <v>1707</v>
       </c>
-      <c r="T126" s="19" t="s">
+      <c r="T126" s="18" t="s">
         <v>1708</v>
       </c>
     </row>
@@ -13117,18 +13117,18 @@
       <c r="B127" s="11" t="s">
         <v>1682</v>
       </c>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="24" t="s">
         <v>1682</v>
       </c>
-      <c r="D127" s="21"/>
+      <c r="D127" s="24"/>
       <c r="E127" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F127" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G127" s="21"/>
-      <c r="H127" s="21"/>
+      <c r="F127" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24"/>
       <c r="I127" s="11" t="s">
         <v>20</v>
       </c>
@@ -13144,10 +13144,10 @@
       <c r="M127" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N127" s="20">
+      <c r="N127" s="19">
         <v>1165.24</v>
       </c>
-      <c r="O127" s="20"/>
+      <c r="O127" s="19"/>
       <c r="P127" s="11" t="s">
         <v>22</v>
       </c>
@@ -13160,7 +13160,7 @@
       <c r="S127" s="11" t="s">
         <v>1695</v>
       </c>
-      <c r="T127" s="19" t="s">
+      <c r="T127" s="18" t="s">
         <v>1709</v>
       </c>
     </row>
@@ -13171,18 +13171,18 @@
       <c r="B128" s="11" t="s">
         <v>1710</v>
       </c>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="24" t="s">
         <v>1710</v>
       </c>
-      <c r="D128" s="21"/>
+      <c r="D128" s="24"/>
       <c r="E128" s="11" t="s">
         <v>1711</v>
       </c>
-      <c r="F128" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G128" s="21"/>
-      <c r="H128" s="21"/>
+      <c r="F128" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24"/>
       <c r="I128" s="11" t="s">
         <v>26</v>
       </c>
@@ -13198,10 +13198,10 @@
       <c r="M128" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N128" s="20">
+      <c r="N128" s="19">
         <v>500</v>
       </c>
-      <c r="O128" s="20"/>
+      <c r="O128" s="19"/>
       <c r="P128" s="11" t="s">
         <v>22</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="S128" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="T128" s="19" t="s">
+      <c r="T128" s="18" t="s">
         <v>1714</v>
       </c>
     </row>
@@ -13225,18 +13225,18 @@
       <c r="B129" s="11" t="s">
         <v>1710</v>
       </c>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D129" s="21"/>
+      <c r="D129" s="24"/>
       <c r="E129" s="11" t="s">
         <v>1716</v>
       </c>
-      <c r="F129" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G129" s="21"/>
-      <c r="H129" s="21"/>
+      <c r="F129" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24"/>
       <c r="I129" s="11" t="s">
         <v>41</v>
       </c>
@@ -13252,10 +13252,10 @@
       <c r="M129" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N129" s="20">
+      <c r="N129" s="19">
         <v>500</v>
       </c>
-      <c r="O129" s="20"/>
+      <c r="O129" s="19"/>
       <c r="P129" s="11" t="s">
         <v>22</v>
       </c>
@@ -13268,7 +13268,7 @@
       <c r="S129" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="T129" s="19" t="s">
+      <c r="T129" s="18" t="s">
         <v>1719</v>
       </c>
     </row>
@@ -13279,18 +13279,18 @@
       <c r="B130" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D130" s="21"/>
+      <c r="D130" s="24"/>
       <c r="E130" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F130" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G130" s="21"/>
-      <c r="H130" s="21"/>
+      <c r="F130" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
       <c r="I130" s="11" t="s">
         <v>406</v>
       </c>
@@ -13302,10 +13302,10 @@
       <c r="M130" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N130" s="20">
+      <c r="N130" s="19">
         <v>300</v>
       </c>
-      <c r="O130" s="20"/>
+      <c r="O130" s="19"/>
       <c r="P130" s="11" t="s">
         <v>22</v>
       </c>
@@ -13318,7 +13318,7 @@
       <c r="S130" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="T130" s="19"/>
+      <c r="T130" s="18"/>
     </row>
     <row r="131" spans="1:20">
       <c r="A131" s="11" t="s">
@@ -13327,18 +13327,18 @@
       <c r="B131" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D131" s="21"/>
+      <c r="D131" s="24"/>
       <c r="E131" s="11" t="s">
         <v>1721</v>
       </c>
-      <c r="F131" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G131" s="21"/>
-      <c r="H131" s="21"/>
+      <c r="F131" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G131" s="24"/>
+      <c r="H131" s="24"/>
       <c r="I131" s="11" t="s">
         <v>26</v>
       </c>
@@ -13354,10 +13354,10 @@
       <c r="M131" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N131" s="20">
+      <c r="N131" s="19">
         <v>500</v>
       </c>
-      <c r="O131" s="20"/>
+      <c r="O131" s="19"/>
       <c r="P131" s="11" t="s">
         <v>22</v>
       </c>
@@ -13370,7 +13370,7 @@
       <c r="S131" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="T131" s="19" t="s">
+      <c r="T131" s="18" t="s">
         <v>485</v>
       </c>
     </row>
@@ -13381,18 +13381,18 @@
       <c r="B132" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D132" s="21"/>
+      <c r="D132" s="24"/>
       <c r="E132" s="11" t="s">
         <v>1012</v>
       </c>
-      <c r="F132" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G132" s="21"/>
-      <c r="H132" s="21"/>
+      <c r="F132" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G132" s="24"/>
+      <c r="H132" s="24"/>
       <c r="I132" s="11" t="s">
         <v>41</v>
       </c>
@@ -13408,10 +13408,10 @@
       <c r="M132" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N132" s="20">
+      <c r="N132" s="19">
         <v>2500</v>
       </c>
-      <c r="O132" s="20"/>
+      <c r="O132" s="19"/>
       <c r="P132" s="11" t="s">
         <v>22</v>
       </c>
@@ -13424,7 +13424,7 @@
       <c r="S132" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="T132" s="19" t="s">
+      <c r="T132" s="18" t="s">
         <v>1725</v>
       </c>
     </row>
@@ -13435,18 +13435,18 @@
       <c r="B133" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D133" s="21"/>
+      <c r="D133" s="24"/>
       <c r="E133" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F133" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G133" s="21"/>
-      <c r="H133" s="21"/>
+      <c r="F133" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" s="24"/>
+      <c r="H133" s="24"/>
       <c r="I133" s="11" t="s">
         <v>20</v>
       </c>
@@ -13462,10 +13462,10 @@
       <c r="M133" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N133" s="20">
+      <c r="N133" s="19">
         <v>13705.86</v>
       </c>
-      <c r="O133" s="20"/>
+      <c r="O133" s="19"/>
       <c r="P133" s="11" t="s">
         <v>22</v>
       </c>
@@ -13478,7 +13478,7 @@
       <c r="S133" s="11" t="s">
         <v>1727</v>
       </c>
-      <c r="T133" s="19" t="s">
+      <c r="T133" s="18" t="s">
         <v>1728</v>
       </c>
     </row>
@@ -13489,18 +13489,18 @@
       <c r="B134" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D134" s="21"/>
+      <c r="D134" s="24"/>
       <c r="E134" s="11" t="s">
         <v>1729</v>
       </c>
-      <c r="F134" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
+      <c r="F134" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
       <c r="I134" s="11" t="s">
         <v>20</v>
       </c>
@@ -13516,10 +13516,10 @@
       <c r="M134" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N134" s="20">
+      <c r="N134" s="19">
         <v>500</v>
       </c>
-      <c r="O134" s="20"/>
+      <c r="O134" s="19"/>
       <c r="P134" s="11" t="s">
         <v>22</v>
       </c>
@@ -13532,7 +13532,7 @@
       <c r="S134" s="11" t="s">
         <v>1732</v>
       </c>
-      <c r="T134" s="19" t="s">
+      <c r="T134" s="18" t="s">
         <v>1733</v>
       </c>
     </row>
@@ -13543,18 +13543,18 @@
       <c r="B135" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D135" s="21"/>
+      <c r="D135" s="24"/>
       <c r="E135" s="11" t="s">
         <v>1734</v>
       </c>
-      <c r="F135" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G135" s="21"/>
-      <c r="H135" s="21"/>
+      <c r="F135" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G135" s="24"/>
+      <c r="H135" s="24"/>
       <c r="I135" s="11" t="s">
         <v>26</v>
       </c>
@@ -13570,10 +13570,10 @@
       <c r="M135" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N135" s="20">
+      <c r="N135" s="19">
         <v>500</v>
       </c>
-      <c r="O135" s="20"/>
+      <c r="O135" s="19"/>
       <c r="P135" s="11" t="s">
         <v>22</v>
       </c>
@@ -13586,7 +13586,7 @@
       <c r="S135" s="11" t="s">
         <v>1737</v>
       </c>
-      <c r="T135" s="19" t="s">
+      <c r="T135" s="18" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -13597,18 +13597,18 @@
       <c r="B136" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D136" s="21"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="11" t="s">
         <v>1738</v>
       </c>
-      <c r="F136" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G136" s="21"/>
-      <c r="H136" s="21"/>
+      <c r="F136" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G136" s="24"/>
+      <c r="H136" s="24"/>
       <c r="I136" s="11" t="s">
         <v>26</v>
       </c>
@@ -13624,10 +13624,10 @@
       <c r="M136" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N136" s="20">
+      <c r="N136" s="19">
         <v>500</v>
       </c>
-      <c r="O136" s="20"/>
+      <c r="O136" s="19"/>
       <c r="P136" s="11" t="s">
         <v>22</v>
       </c>
@@ -13640,7 +13640,7 @@
       <c r="S136" s="11" t="s">
         <v>1169</v>
       </c>
-      <c r="T136" s="19" t="s">
+      <c r="T136" s="18" t="s">
         <v>485</v>
       </c>
     </row>
@@ -13651,18 +13651,18 @@
       <c r="B137" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D137" s="21"/>
+      <c r="D137" s="24"/>
       <c r="E137" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F137" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G137" s="21"/>
-      <c r="H137" s="21"/>
+      <c r="F137" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G137" s="24"/>
+      <c r="H137" s="24"/>
       <c r="I137" s="11" t="s">
         <v>20</v>
       </c>
@@ -13678,10 +13678,10 @@
       <c r="M137" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N137" s="20">
+      <c r="N137" s="19">
         <v>1707.51</v>
       </c>
-      <c r="O137" s="20"/>
+      <c r="O137" s="19"/>
       <c r="P137" s="11" t="s">
         <v>22</v>
       </c>
@@ -13694,7 +13694,7 @@
       <c r="S137" s="11" t="s">
         <v>1742</v>
       </c>
-      <c r="T137" s="19" t="s">
+      <c r="T137" s="18" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -13705,18 +13705,18 @@
       <c r="B138" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D138" s="21"/>
+      <c r="D138" s="24"/>
       <c r="E138" s="11" t="s">
         <v>1744</v>
       </c>
-      <c r="F138" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
+      <c r="F138" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" s="24"/>
+      <c r="H138" s="24"/>
       <c r="I138" s="11" t="s">
         <v>20</v>
       </c>
@@ -13732,10 +13732,10 @@
       <c r="M138" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N138" s="20">
+      <c r="N138" s="19">
         <v>500</v>
       </c>
-      <c r="O138" s="20"/>
+      <c r="O138" s="19"/>
       <c r="P138" s="11" t="s">
         <v>22</v>
       </c>
@@ -13748,7 +13748,7 @@
       <c r="S138" s="11" t="s">
         <v>1747</v>
       </c>
-      <c r="T138" s="19" t="s">
+      <c r="T138" s="18" t="s">
         <v>524</v>
       </c>
     </row>
@@ -13759,18 +13759,18 @@
       <c r="B139" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D139" s="21"/>
+      <c r="D139" s="24"/>
       <c r="E139" s="11" t="s">
         <v>1748</v>
       </c>
-      <c r="F139" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" s="21"/>
-      <c r="H139" s="21"/>
+      <c r="F139" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
       <c r="I139" s="11" t="s">
         <v>26</v>
       </c>
@@ -13786,10 +13786,10 @@
       <c r="M139" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N139" s="20">
+      <c r="N139" s="19">
         <v>500</v>
       </c>
-      <c r="O139" s="20"/>
+      <c r="O139" s="19"/>
       <c r="P139" s="11" t="s">
         <v>22</v>
       </c>
@@ -13802,7 +13802,7 @@
       <c r="S139" s="11" t="s">
         <v>1202</v>
       </c>
-      <c r="T139" s="19" t="s">
+      <c r="T139" s="18" t="s">
         <v>1751</v>
       </c>
     </row>
@@ -13813,18 +13813,18 @@
       <c r="B140" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D140" s="21"/>
+      <c r="D140" s="24"/>
       <c r="E140" s="11" t="s">
         <v>1752</v>
       </c>
-      <c r="F140" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G140" s="21"/>
-      <c r="H140" s="21"/>
+      <c r="F140" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G140" s="24"/>
+      <c r="H140" s="24"/>
       <c r="I140" s="11" t="s">
         <v>20</v>
       </c>
@@ -13840,10 +13840,10 @@
       <c r="M140" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N140" s="20">
+      <c r="N140" s="19">
         <v>500</v>
       </c>
-      <c r="O140" s="20"/>
+      <c r="O140" s="19"/>
       <c r="P140" s="11" t="s">
         <v>22</v>
       </c>
@@ -13856,7 +13856,7 @@
       <c r="S140" s="11" t="s">
         <v>1755</v>
       </c>
-      <c r="T140" s="19" t="s">
+      <c r="T140" s="18" t="s">
         <v>524</v>
       </c>
     </row>
@@ -13867,18 +13867,18 @@
       <c r="B141" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D141" s="21"/>
+      <c r="D141" s="24"/>
       <c r="E141" s="11" t="s">
         <v>1756</v>
       </c>
-      <c r="F141" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" s="21"/>
-      <c r="H141" s="21"/>
+      <c r="F141" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
       <c r="I141" s="11" t="s">
         <v>26</v>
       </c>
@@ -13894,10 +13894,10 @@
       <c r="M141" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N141" s="20">
+      <c r="N141" s="19">
         <v>500</v>
       </c>
-      <c r="O141" s="20"/>
+      <c r="O141" s="19"/>
       <c r="P141" s="11" t="s">
         <v>22</v>
       </c>
@@ -13910,7 +13910,7 @@
       <c r="S141" s="11" t="s">
         <v>1759</v>
       </c>
-      <c r="T141" s="19" t="s">
+      <c r="T141" s="18" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -13921,18 +13921,18 @@
       <c r="B142" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D142" s="21"/>
+      <c r="D142" s="24"/>
       <c r="E142" s="11" t="s">
         <v>1761</v>
       </c>
-      <c r="F142" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G142" s="21"/>
-      <c r="H142" s="21"/>
+      <c r="F142" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
       <c r="I142" s="11" t="s">
         <v>26</v>
       </c>
@@ -13948,10 +13948,10 @@
       <c r="M142" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N142" s="20">
+      <c r="N142" s="19">
         <v>500</v>
       </c>
-      <c r="O142" s="20"/>
+      <c r="O142" s="19"/>
       <c r="P142" s="11" t="s">
         <v>22</v>
       </c>
@@ -13964,7 +13964,7 @@
       <c r="S142" s="11" t="s">
         <v>1764</v>
       </c>
-      <c r="T142" s="19" t="s">
+      <c r="T142" s="18" t="s">
         <v>1765</v>
       </c>
     </row>
@@ -13975,18 +13975,18 @@
       <c r="B143" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D143" s="21"/>
+      <c r="D143" s="24"/>
       <c r="E143" s="11" t="s">
         <v>1766</v>
       </c>
-      <c r="F143" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" s="21"/>
-      <c r="H143" s="21"/>
+      <c r="F143" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G143" s="24"/>
+      <c r="H143" s="24"/>
       <c r="I143" s="11" t="s">
         <v>26</v>
       </c>
@@ -14002,8 +14002,8 @@
       <c r="M143" s="11" t="s">
         <v>1767</v>
       </c>
-      <c r="N143" s="20"/>
-      <c r="O143" s="20">
+      <c r="N143" s="19"/>
+      <c r="O143" s="19">
         <v>-810</v>
       </c>
       <c r="P143" s="11" t="s">
@@ -14018,7 +14018,7 @@
       <c r="S143" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="T143" s="19" t="s">
+      <c r="T143" s="18" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -14029,18 +14029,18 @@
       <c r="B144" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D144" s="21"/>
+      <c r="D144" s="24"/>
       <c r="E144" s="11" t="s">
         <v>1770</v>
       </c>
-      <c r="F144" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G144" s="21"/>
-      <c r="H144" s="21"/>
+      <c r="F144" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="24"/>
+      <c r="H144" s="24"/>
       <c r="I144" s="11" t="s">
         <v>26</v>
       </c>
@@ -14056,10 +14056,10 @@
       <c r="M144" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N144" s="20">
+      <c r="N144" s="19">
         <v>500</v>
       </c>
-      <c r="O144" s="20"/>
+      <c r="O144" s="19"/>
       <c r="P144" s="11" t="s">
         <v>22</v>
       </c>
@@ -14072,7 +14072,7 @@
       <c r="S144" s="11" t="s">
         <v>1773</v>
       </c>
-      <c r="T144" s="19" t="s">
+      <c r="T144" s="18" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -14083,18 +14083,18 @@
       <c r="B145" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D145" s="21"/>
+      <c r="D145" s="24"/>
       <c r="E145" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F145" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" s="21"/>
-      <c r="H145" s="21"/>
+      <c r="F145" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="24"/>
+      <c r="H145" s="24"/>
       <c r="I145" s="11" t="s">
         <v>406</v>
       </c>
@@ -14106,10 +14106,10 @@
       <c r="M145" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N145" s="20">
+      <c r="N145" s="19">
         <v>96</v>
       </c>
-      <c r="O145" s="20"/>
+      <c r="O145" s="19"/>
       <c r="P145" s="11" t="s">
         <v>22</v>
       </c>
@@ -14122,7 +14122,7 @@
       <c r="S145" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="T145" s="19"/>
+      <c r="T145" s="18"/>
     </row>
     <row r="146" spans="1:20">
       <c r="A146" s="11" t="s">
@@ -14131,18 +14131,18 @@
       <c r="B146" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="24" t="s">
         <v>956</v>
       </c>
-      <c r="D146" s="21"/>
+      <c r="D146" s="24"/>
       <c r="E146" s="11" t="s">
         <v>1776</v>
       </c>
-      <c r="F146" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G146" s="21"/>
-      <c r="H146" s="21"/>
+      <c r="F146" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G146" s="24"/>
+      <c r="H146" s="24"/>
       <c r="I146" s="11" t="s">
         <v>41</v>
       </c>
@@ -14158,10 +14158,10 @@
       <c r="M146" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N146" s="20">
+      <c r="N146" s="19">
         <v>500</v>
       </c>
-      <c r="O146" s="20"/>
+      <c r="O146" s="19"/>
       <c r="P146" s="11" t="s">
         <v>22</v>
       </c>
@@ -14174,7 +14174,7 @@
       <c r="S146" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="T146" s="19" t="s">
+      <c r="T146" s="18" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -14185,18 +14185,18 @@
       <c r="B147" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D147" s="21"/>
+      <c r="D147" s="24"/>
       <c r="E147" s="11" t="s">
         <v>1779</v>
       </c>
-      <c r="F147" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" s="21"/>
-      <c r="H147" s="21"/>
+      <c r="F147" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G147" s="24"/>
+      <c r="H147" s="24"/>
       <c r="I147" s="11" t="s">
         <v>26</v>
       </c>
@@ -14212,10 +14212,10 @@
       <c r="M147" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N147" s="20">
+      <c r="N147" s="19">
         <v>500</v>
       </c>
-      <c r="O147" s="20"/>
+      <c r="O147" s="19"/>
       <c r="P147" s="11" t="s">
         <v>22</v>
       </c>
@@ -14228,7 +14228,7 @@
       <c r="S147" s="11" t="s">
         <v>1782</v>
       </c>
-      <c r="T147" s="19" t="s">
+      <c r="T147" s="18" t="s">
         <v>1783</v>
       </c>
     </row>
@@ -14239,18 +14239,18 @@
       <c r="B148" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D148" s="21"/>
+      <c r="D148" s="24"/>
       <c r="E148" s="11" t="s">
         <v>1784</v>
       </c>
-      <c r="F148" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G148" s="21"/>
-      <c r="H148" s="21"/>
+      <c r="F148" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G148" s="24"/>
+      <c r="H148" s="24"/>
       <c r="I148" s="11" t="s">
         <v>20</v>
       </c>
@@ -14266,10 +14266,10 @@
       <c r="M148" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N148" s="20">
+      <c r="N148" s="19">
         <v>500</v>
       </c>
-      <c r="O148" s="20"/>
+      <c r="O148" s="19"/>
       <c r="P148" s="11" t="s">
         <v>22</v>
       </c>
@@ -14282,7 +14282,7 @@
       <c r="S148" s="11" t="s">
         <v>1787</v>
       </c>
-      <c r="T148" s="19" t="s">
+      <c r="T148" s="18" t="s">
         <v>1788</v>
       </c>
     </row>
@@ -14293,18 +14293,18 @@
       <c r="B149" s="11" t="s">
         <v>1715</v>
       </c>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="24" t="s">
         <v>1715</v>
       </c>
-      <c r="D149" s="21"/>
+      <c r="D149" s="24"/>
       <c r="E149" s="11" t="s">
         <v>1789</v>
       </c>
-      <c r="F149" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" s="21"/>
-      <c r="H149" s="21"/>
+      <c r="F149" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
       <c r="I149" s="11" t="s">
         <v>20</v>
       </c>
@@ -14320,10 +14320,10 @@
       <c r="M149" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N149" s="20">
+      <c r="N149" s="19">
         <v>500</v>
       </c>
-      <c r="O149" s="20"/>
+      <c r="O149" s="19"/>
       <c r="P149" s="11" t="s">
         <v>22</v>
       </c>
@@ -14336,7 +14336,7 @@
       <c r="S149" s="11" t="s">
         <v>1792</v>
       </c>
-      <c r="T149" s="19" t="s">
+      <c r="T149" s="18" t="s">
         <v>1793</v>
       </c>
     </row>
@@ -14347,18 +14347,18 @@
       <c r="B150" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C150" s="18" t="s">
+      <c r="C150" s="25" t="s">
         <v>957</v>
       </c>
-      <c r="D150" s="18"/>
+      <c r="D150" s="25"/>
       <c r="E150" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F150" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G150" s="18"/>
-      <c r="H150" s="18"/>
+      <c r="F150" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
       <c r="I150" s="15" t="s">
         <v>20</v>
       </c>
@@ -14401,18 +14401,18 @@
       <c r="B151" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="25" t="s">
         <v>957</v>
       </c>
-      <c r="D151" s="18"/>
+      <c r="D151" s="25"/>
       <c r="E151" s="15" t="s">
         <v>961</v>
       </c>
-      <c r="F151" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
+      <c r="F151" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
       <c r="I151" s="15" t="s">
         <v>20</v>
       </c>
@@ -14455,18 +14455,18 @@
       <c r="B152" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="25" t="s">
         <v>956</v>
       </c>
-      <c r="D152" s="18"/>
+      <c r="D152" s="25"/>
       <c r="E152" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F152" s="18" t="s">
+      <c r="F152" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G152" s="18"/>
-      <c r="H152" s="18"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
       <c r="I152" s="15" t="s">
         <v>166</v>
       </c>
@@ -14503,18 +14503,18 @@
       <c r="B153" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C153" s="25" t="s">
         <v>956</v>
       </c>
-      <c r="D153" s="18"/>
+      <c r="D153" s="25"/>
       <c r="E153" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F153" s="18" t="s">
+      <c r="F153" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G153" s="18"/>
-      <c r="H153" s="18"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
       <c r="I153" s="15" t="s">
         <v>166</v>
       </c>
@@ -14551,18 +14551,18 @@
       <c r="B154" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="25" t="s">
         <v>956</v>
       </c>
-      <c r="D154" s="18"/>
+      <c r="D154" s="25"/>
       <c r="E154" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F154" s="18" t="s">
+      <c r="F154" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G154" s="18"/>
-      <c r="H154" s="18"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
       <c r="I154" s="15" t="s">
         <v>166</v>
       </c>
@@ -14599,18 +14599,18 @@
       <c r="B155" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="25" t="s">
         <v>957</v>
       </c>
-      <c r="D155" s="18"/>
+      <c r="D155" s="25"/>
       <c r="E155" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="F155" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" s="18"/>
-      <c r="H155" s="18"/>
+      <c r="F155" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
       <c r="I155" s="15" t="s">
         <v>26</v>
       </c>
@@ -14653,18 +14653,18 @@
       <c r="B156" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="25" t="s">
         <v>957</v>
       </c>
-      <c r="D156" s="18"/>
+      <c r="D156" s="25"/>
       <c r="E156" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F156" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G156" s="18"/>
-      <c r="H156" s="18"/>
+      <c r="F156" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
       <c r="I156" s="15" t="s">
         <v>20</v>
       </c>
@@ -14707,18 +14707,18 @@
       <c r="B157" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="25" t="s">
         <v>957</v>
       </c>
-      <c r="D157" s="18"/>
+      <c r="D157" s="25"/>
       <c r="E157" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F157" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" s="18"/>
-      <c r="H157" s="18"/>
+      <c r="F157" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
       <c r="I157" s="15" t="s">
         <v>20</v>
       </c>
@@ -14761,18 +14761,18 @@
       <c r="B158" s="15" t="s">
         <v>956</v>
       </c>
-      <c r="C158" s="18" t="s">
+      <c r="C158" s="25" t="s">
         <v>956</v>
       </c>
-      <c r="D158" s="18"/>
+      <c r="D158" s="25"/>
       <c r="E158" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F158" s="18" t="s">
+      <c r="F158" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
       <c r="I158" s="15" t="s">
         <v>166</v>
       </c>
@@ -14809,18 +14809,18 @@
       <c r="B159" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D159" s="18"/>
+      <c r="D159" s="25"/>
       <c r="E159" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F159" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
+      <c r="F159" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
       <c r="I159" s="15" t="s">
         <v>20</v>
       </c>
@@ -14863,18 +14863,18 @@
       <c r="B160" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D160" s="18"/>
+      <c r="D160" s="25"/>
       <c r="E160" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F160" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G160" s="18"/>
-      <c r="H160" s="18"/>
+      <c r="F160" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
       <c r="I160" s="15" t="s">
         <v>115</v>
       </c>
@@ -14913,18 +14913,18 @@
       <c r="B161" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D161" s="18"/>
+      <c r="D161" s="25"/>
       <c r="E161" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="F161" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
+      <c r="F161" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
       <c r="I161" s="15" t="s">
         <v>26</v>
       </c>
@@ -14967,18 +14967,18 @@
       <c r="B162" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C162" s="18" t="s">
+      <c r="C162" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D162" s="18"/>
+      <c r="D162" s="25"/>
       <c r="E162" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F162" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
+      <c r="F162" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
       <c r="I162" s="15" t="s">
         <v>20</v>
       </c>
@@ -15021,18 +15021,18 @@
       <c r="B163" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D163" s="18"/>
+      <c r="D163" s="25"/>
       <c r="E163" s="15" t="s">
         <v>988</v>
       </c>
-      <c r="F163" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G163" s="18"/>
-      <c r="H163" s="18"/>
+      <c r="F163" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
       <c r="I163" s="15" t="s">
         <v>26</v>
       </c>
@@ -15075,18 +15075,18 @@
       <c r="B164" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C164" s="18" t="s">
+      <c r="C164" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D164" s="18"/>
+      <c r="D164" s="25"/>
       <c r="E164" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F164" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
+      <c r="F164" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
       <c r="I164" s="15" t="s">
         <v>20</v>
       </c>
@@ -15129,18 +15129,18 @@
       <c r="B165" s="15" t="s">
         <v>977</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="25" t="s">
         <v>977</v>
       </c>
-      <c r="D165" s="18"/>
+      <c r="D165" s="25"/>
       <c r="E165" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="F165" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" s="18"/>
-      <c r="H165" s="18"/>
+      <c r="F165" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
       <c r="I165" s="15" t="s">
         <v>406</v>
       </c>
@@ -15177,18 +15177,18 @@
       <c r="B166" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C166" s="18" t="s">
+      <c r="C166" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D166" s="18"/>
+      <c r="D166" s="25"/>
       <c r="E166" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F166" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" s="18"/>
-      <c r="H166" s="18"/>
+      <c r="F166" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
       <c r="I166" s="15" t="s">
         <v>20</v>
       </c>
@@ -15231,18 +15231,18 @@
       <c r="B167" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C167" s="18" t="s">
+      <c r="C167" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D167" s="18"/>
+      <c r="D167" s="25"/>
       <c r="E167" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="F167" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G167" s="18"/>
-      <c r="H167" s="18"/>
+      <c r="F167" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
       <c r="I167" s="15" t="s">
         <v>20</v>
       </c>
@@ -15285,18 +15285,18 @@
       <c r="B168" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D168" s="18"/>
+      <c r="D168" s="25"/>
       <c r="E168" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F168" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" s="18"/>
-      <c r="H168" s="18"/>
+      <c r="F168" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
       <c r="I168" s="15" t="s">
         <v>20</v>
       </c>
@@ -15339,18 +15339,18 @@
       <c r="B169" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D169" s="18"/>
+      <c r="D169" s="25"/>
       <c r="E169" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F169" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" s="18"/>
-      <c r="H169" s="18"/>
+      <c r="F169" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
       <c r="I169" s="15" t="s">
         <v>20</v>
       </c>
@@ -15393,18 +15393,18 @@
       <c r="B170" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C170" s="18" t="s">
+      <c r="C170" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D170" s="18"/>
+      <c r="D170" s="25"/>
       <c r="E170" s="15" t="s">
         <v>1012</v>
       </c>
-      <c r="F170" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G170" s="18"/>
-      <c r="H170" s="18"/>
+      <c r="F170" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
       <c r="I170" s="15" t="s">
         <v>41</v>
       </c>
@@ -15447,18 +15447,18 @@
       <c r="B171" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D171" s="18"/>
+      <c r="D171" s="25"/>
       <c r="E171" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="F171" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18"/>
+      <c r="F171" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
       <c r="I171" s="15" t="s">
         <v>26</v>
       </c>
@@ -15501,18 +15501,18 @@
       <c r="B172" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C172" s="18" t="s">
+      <c r="C172" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D172" s="18"/>
+      <c r="D172" s="25"/>
       <c r="E172" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F172" s="18" t="s">
+      <c r="F172" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
       <c r="I172" s="15" t="s">
         <v>166</v>
       </c>
@@ -15551,18 +15551,18 @@
       <c r="B173" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C173" s="18" t="s">
+      <c r="C173" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D173" s="18"/>
+      <c r="D173" s="25"/>
       <c r="E173" s="15" t="s">
         <v>1021</v>
       </c>
-      <c r="F173" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18"/>
+      <c r="F173" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
       <c r="I173" s="15" t="s">
         <v>26</v>
       </c>
@@ -15605,18 +15605,18 @@
       <c r="B174" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C174" s="18" t="s">
+      <c r="C174" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D174" s="18"/>
+      <c r="D174" s="25"/>
       <c r="E174" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="F174" s="18" t="s">
+      <c r="F174" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
       <c r="I174" s="15" t="s">
         <v>166</v>
       </c>
@@ -15653,18 +15653,18 @@
       <c r="B175" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="C175" s="18" t="s">
+      <c r="C175" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="D175" s="18"/>
+      <c r="D175" s="25"/>
       <c r="E175" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F175" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G175" s="18"/>
-      <c r="H175" s="18"/>
+      <c r="F175" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
       <c r="I175" s="15" t="s">
         <v>20</v>
       </c>
@@ -15707,18 +15707,18 @@
       <c r="B176" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C176" s="18" t="s">
+      <c r="C176" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D176" s="18"/>
+      <c r="D176" s="25"/>
       <c r="E176" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F176" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18"/>
+      <c r="F176" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
       <c r="I176" s="15" t="s">
         <v>20</v>
       </c>
@@ -15761,18 +15761,18 @@
       <c r="B177" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D177" s="18"/>
+      <c r="D177" s="25"/>
       <c r="E177" s="15" t="s">
         <v>1031</v>
       </c>
-      <c r="F177" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18"/>
+      <c r="F177" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
       <c r="I177" s="15" t="s">
         <v>26</v>
       </c>
@@ -15815,18 +15815,18 @@
       <c r="B178" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C178" s="18" t="s">
+      <c r="C178" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D178" s="18"/>
+      <c r="D178" s="25"/>
       <c r="E178" s="15" t="s">
         <v>1036</v>
       </c>
-      <c r="F178" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18"/>
+      <c r="F178" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
       <c r="I178" s="15" t="s">
         <v>26</v>
       </c>
@@ -15869,18 +15869,18 @@
       <c r="B179" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C179" s="18" t="s">
+      <c r="C179" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D179" s="18"/>
+      <c r="D179" s="25"/>
       <c r="E179" s="15" t="s">
         <v>1040</v>
       </c>
-      <c r="F179" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18"/>
+      <c r="F179" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G179" s="25"/>
+      <c r="H179" s="25"/>
       <c r="I179" s="15" t="s">
         <v>26</v>
       </c>
@@ -15923,18 +15923,18 @@
       <c r="B180" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C180" s="18" t="s">
+      <c r="C180" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D180" s="18"/>
+      <c r="D180" s="25"/>
       <c r="E180" s="15" t="s">
         <v>1045</v>
       </c>
-      <c r="F180" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G180" s="18"/>
-      <c r="H180" s="18"/>
+      <c r="F180" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G180" s="25"/>
+      <c r="H180" s="25"/>
       <c r="I180" s="15" t="s">
         <v>41</v>
       </c>
@@ -15977,18 +15977,18 @@
       <c r="B181" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C181" s="18" t="s">
+      <c r="C181" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D181" s="18"/>
+      <c r="D181" s="25"/>
       <c r="E181" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F181" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G181" s="18"/>
-      <c r="H181" s="18"/>
+      <c r="F181" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G181" s="25"/>
+      <c r="H181" s="25"/>
       <c r="I181" s="15" t="s">
         <v>20</v>
       </c>
@@ -16031,18 +16031,18 @@
       <c r="B182" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C182" s="18" t="s">
+      <c r="C182" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D182" s="18"/>
+      <c r="D182" s="25"/>
       <c r="E182" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F182" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G182" s="18"/>
-      <c r="H182" s="18"/>
+      <c r="F182" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G182" s="25"/>
+      <c r="H182" s="25"/>
       <c r="I182" s="15" t="s">
         <v>20</v>
       </c>
@@ -16085,18 +16085,18 @@
       <c r="B183" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C183" s="18" t="s">
+      <c r="C183" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D183" s="18"/>
+      <c r="D183" s="25"/>
       <c r="E183" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F183" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G183" s="18"/>
-      <c r="H183" s="18"/>
+      <c r="F183" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G183" s="25"/>
+      <c r="H183" s="25"/>
       <c r="I183" s="15" t="s">
         <v>20</v>
       </c>
@@ -16139,18 +16139,18 @@
       <c r="B184" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C184" s="18" t="s">
+      <c r="C184" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D184" s="18"/>
+      <c r="D184" s="25"/>
       <c r="E184" s="15" t="s">
         <v>1057</v>
       </c>
-      <c r="F184" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G184" s="18"/>
-      <c r="H184" s="18"/>
+      <c r="F184" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G184" s="25"/>
+      <c r="H184" s="25"/>
       <c r="I184" s="15" t="s">
         <v>41</v>
       </c>
@@ -16193,18 +16193,18 @@
       <c r="B185" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C185" s="18" t="s">
+      <c r="C185" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D185" s="18"/>
+      <c r="D185" s="25"/>
       <c r="E185" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F185" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G185" s="18"/>
-      <c r="H185" s="18"/>
+      <c r="F185" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G185" s="25"/>
+      <c r="H185" s="25"/>
       <c r="I185" s="15" t="s">
         <v>20</v>
       </c>
@@ -16247,18 +16247,18 @@
       <c r="B186" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C186" s="18" t="s">
+      <c r="C186" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D186" s="18"/>
+      <c r="D186" s="25"/>
       <c r="E186" s="15" t="s">
         <v>1064</v>
       </c>
-      <c r="F186" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G186" s="18"/>
-      <c r="H186" s="18"/>
+      <c r="F186" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G186" s="25"/>
+      <c r="H186" s="25"/>
       <c r="I186" s="15" t="s">
         <v>20</v>
       </c>
@@ -16301,18 +16301,18 @@
       <c r="B187" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C187" s="18" t="s">
+      <c r="C187" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D187" s="18"/>
+      <c r="D187" s="25"/>
       <c r="E187" s="15" t="s">
         <v>1069</v>
       </c>
-      <c r="F187" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G187" s="18"/>
-      <c r="H187" s="18"/>
+      <c r="F187" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
       <c r="I187" s="15" t="s">
         <v>20</v>
       </c>
@@ -16355,18 +16355,18 @@
       <c r="B188" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C188" s="18" t="s">
+      <c r="C188" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D188" s="18"/>
+      <c r="D188" s="25"/>
       <c r="E188" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F188" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G188" s="18"/>
-      <c r="H188" s="18"/>
+      <c r="F188" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G188" s="25"/>
+      <c r="H188" s="25"/>
       <c r="I188" s="15" t="s">
         <v>20</v>
       </c>
@@ -16409,18 +16409,18 @@
       <c r="B189" s="15" t="s">
         <v>1028</v>
       </c>
-      <c r="C189" s="18" t="s">
+      <c r="C189" s="25" t="s">
         <v>1028</v>
       </c>
-      <c r="D189" s="18"/>
+      <c r="D189" s="25"/>
       <c r="E189" s="15" t="s">
         <v>1075</v>
       </c>
-      <c r="F189" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G189" s="18"/>
-      <c r="H189" s="18"/>
+      <c r="F189" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="G189" s="25"/>
+      <c r="H189" s="25"/>
       <c r="I189" s="15" t="s">
         <v>20</v>
       </c>
@@ -40936,6 +40936,12 @@
     </row>
   </sheetData>
   <mergeCells count="378">
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="F120:H120"/>
     <mergeCell ref="C110:D110"/>
     <mergeCell ref="F110:H110"/>
     <mergeCell ref="C111:D111"/>
@@ -40952,40 +40958,28 @@
     <mergeCell ref="F113:H113"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="F114:H114"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="F126:H126"/>
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="F121:H121"/>
     <mergeCell ref="C122:D122"/>
     <mergeCell ref="F122:H122"/>
     <mergeCell ref="C123:D123"/>
     <mergeCell ref="F123:H123"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="F132:H132"/>
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="F127:H127"/>
     <mergeCell ref="C128:D128"/>
     <mergeCell ref="F128:H128"/>
     <mergeCell ref="C129:D129"/>
     <mergeCell ref="F129:H129"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="F132:H132"/>
     <mergeCell ref="C107:D107"/>
     <mergeCell ref="F107:H107"/>
     <mergeCell ref="C108:D108"/>
@@ -41280,6 +41274,12 @@
     <mergeCell ref="F138:H138"/>
     <mergeCell ref="C133:D133"/>
     <mergeCell ref="F133:H133"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="F130:H130"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="C4:D4"/>
@@ -41316,6 +41316,6 @@
     <mergeCell ref="F8:H8"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>